--- a/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.631733593481897</v>
+        <v>3.631733593481783</v>
       </c>
       <c r="C2">
         <v>1.289893918934638</v>
       </c>
       <c r="D2">
-        <v>0.2637934792922749</v>
+        <v>0.263793479292616</v>
       </c>
       <c r="E2">
-        <v>0.1572399147255652</v>
+        <v>0.1572399147255439</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.782714033851789</v>
+        <v>2.782714033851818</v>
       </c>
       <c r="H2">
-        <v>1.835384188745408</v>
+        <v>1.835384188745422</v>
       </c>
       <c r="I2">
-        <v>0.02984756620865703</v>
+        <v>0.02984756620862328</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.452330524861253</v>
+        <v>0.4523305248612672</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.119358239453959</v>
+        <v>3.119358239453675</v>
       </c>
       <c r="C3">
-        <v>1.104846718158569</v>
+        <v>1.104846718158512</v>
       </c>
       <c r="D3">
-        <v>0.2280142547457444</v>
+        <v>0.2280142547456165</v>
       </c>
       <c r="E3">
-        <v>0.1359806924619029</v>
+        <v>0.1359806924618923</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.46102954388779</v>
+        <v>2.461029543887804</v>
       </c>
       <c r="H3">
-        <v>1.645606240559331</v>
+        <v>1.645606240559317</v>
       </c>
       <c r="I3">
-        <v>0.02582873042691602</v>
+        <v>0.02582873042694978</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3884972998723697</v>
+        <v>0.3884972998724194</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.811504617268895</v>
+        <v>2.811504617269009</v>
       </c>
       <c r="C4">
-        <v>0.9939613402556802</v>
+        <v>0.9939613402561633</v>
       </c>
       <c r="D4">
-        <v>0.2066703278987916</v>
+        <v>0.2066703278989337</v>
       </c>
       <c r="E4">
-        <v>0.1233260583692264</v>
+        <v>0.1233260583692619</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>2.271124110360304</v>
       </c>
       <c r="H4">
-        <v>1.534071244960558</v>
+        <v>1.534071244960586</v>
       </c>
       <c r="I4">
-        <v>0.02344166090745503</v>
+        <v>0.02344166090744082</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3503738691275657</v>
+        <v>0.3503738691275728</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.687478420290518</v>
+        <v>2.687478420290461</v>
       </c>
       <c r="C5">
-        <v>0.9493505907172448</v>
+        <v>0.9493505907170459</v>
       </c>
       <c r="D5">
-        <v>0.1981070719704263</v>
+        <v>0.1981070719704405</v>
       </c>
       <c r="E5">
-        <v>0.1182550779582385</v>
+        <v>0.1182550779582172</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>2.195397625249427</v>
       </c>
       <c r="H5">
-        <v>1.489714759103279</v>
+        <v>1.489714759103293</v>
       </c>
       <c r="I5">
-        <v>0.02248625672897653</v>
+        <v>0.02248625672898541</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3350666739321611</v>
+        <v>0.3350666739321326</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.666962828169005</v>
+        <v>2.666962828168835</v>
       </c>
       <c r="C6">
         <v>0.9419747777808709</v>
       </c>
       <c r="D6">
-        <v>0.196692667361944</v>
+        <v>0.1966926673618019</v>
       </c>
       <c r="E6">
-        <v>0.1174178442320262</v>
+        <v>0.1174178442320439</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.182916814858118</v>
+        <v>2.182916814858146</v>
       </c>
       <c r="H6">
         <v>1.482411196084882</v>
       </c>
       <c r="I6">
-        <v>0.02232858180055253</v>
+        <v>0.02232858180056496</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.809826514216354</v>
+        <v>2.809826514216184</v>
       </c>
       <c r="C7">
-        <v>0.9933575101715064</v>
+        <v>0.9933575101713075</v>
       </c>
       <c r="D7">
-        <v>0.2065543238736041</v>
+        <v>0.2065543238738314</v>
       </c>
       <c r="E7">
-        <v>0.1232573393782843</v>
+        <v>0.1232573393782452</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.270096421687654</v>
+        <v>2.27009642168764</v>
       </c>
       <c r="H7">
         <v>1.533468802675529</v>
       </c>
       <c r="I7">
-        <v>0.02342870934761798</v>
+        <v>0.02342870934761088</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3501665565509882</v>
+        <v>0.3501665565510166</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.45349335631272</v>
+        <v>3.453493356312606</v>
       </c>
       <c r="C8">
-        <v>1.225450571544911</v>
+        <v>1.225450571544684</v>
       </c>
       <c r="D8">
-        <v>0.2513127556444772</v>
+        <v>0.2513127556443493</v>
       </c>
       <c r="E8">
-        <v>0.1498178179700034</v>
+        <v>0.1498178179699678</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>2.670056548025059</v>
       </c>
       <c r="H8">
-        <v>1.768811135687116</v>
+        <v>1.76881113568713</v>
       </c>
       <c r="I8">
-        <v>0.02844330441369536</v>
+        <v>0.02844330441369003</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4300725581501794</v>
+        <v>0.4300725581501865</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.78342598555588</v>
+        <v>4.783425985555937</v>
       </c>
       <c r="C9">
-        <v>1.70815136669745</v>
+        <v>1.708151366697507</v>
       </c>
       <c r="D9">
-        <v>0.3452178654973039</v>
+        <v>0.3452178654969771</v>
       </c>
       <c r="E9">
-        <v>0.2058175015427537</v>
+        <v>0.2058175015428034</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.527931646817393</v>
+        <v>3.527931646817365</v>
       </c>
       <c r="H9">
-        <v>2.278239364326126</v>
+        <v>2.278239364326112</v>
       </c>
       <c r="I9">
-        <v>0.03906789424448753</v>
+        <v>0.03906789424450352</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5974003584972891</v>
+        <v>0.5974003584973033</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.825394915373352</v>
+        <v>5.825394915373579</v>
       </c>
       <c r="C10">
-        <v>2.089401707789364</v>
+        <v>2.089401707789079</v>
       </c>
       <c r="D10">
-        <v>0.4199036412771591</v>
+        <v>0.4199036412771306</v>
       </c>
       <c r="E10">
-        <v>0.2505974491279161</v>
+        <v>0.2505974491279446</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.224899526330489</v>
+        <v>4.224899526330546</v>
       </c>
       <c r="H10">
-        <v>2.695537536935817</v>
+        <v>2.695537536935831</v>
       </c>
       <c r="I10">
-        <v>0.04760962233389421</v>
+        <v>0.04760962233391375</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7303819152910123</v>
+        <v>0.7303819152910052</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.320171353943294</v>
+        <v>6.320171353943181</v>
       </c>
       <c r="C11">
-        <v>2.271407402490922</v>
+        <v>2.271407402490979</v>
       </c>
       <c r="D11">
-        <v>0.4556674953720119</v>
+        <v>0.4556674953720403</v>
       </c>
       <c r="E11">
-        <v>0.272112538062153</v>
+        <v>0.2721125380621814</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.562612639123557</v>
+        <v>4.562612639123586</v>
       </c>
       <c r="H11">
         <v>2.898609809228418</v>
       </c>
       <c r="I11">
-        <v>0.05172725750966478</v>
+        <v>0.05172725750965945</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7940704462822552</v>
+        <v>0.7940704462821984</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.51121999045273</v>
+        <v>6.51121999045256</v>
       </c>
       <c r="C12">
-        <v>2.341855560548197</v>
+        <v>2.34185556054814</v>
       </c>
       <c r="D12">
-        <v>0.4695254272885165</v>
+        <v>0.4695254272884597</v>
       </c>
       <c r="E12">
-        <v>0.2804615774142007</v>
+        <v>0.280461577414215</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.694114697947697</v>
+        <v>4.694114697947754</v>
       </c>
       <c r="H12">
-        <v>2.977820913108118</v>
+        <v>2.977820913108147</v>
       </c>
       <c r="I12">
-        <v>0.05332746150699919</v>
+        <v>0.05332746150696366</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8187535889667714</v>
+        <v>0.818753588966814</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.469897478263249</v>
+        <v>6.469897478263363</v>
       </c>
       <c r="C13">
-        <v>2.326610020526402</v>
+        <v>2.326610020526346</v>
       </c>
       <c r="D13">
-        <v>0.4665258150192244</v>
+        <v>0.4665258150193949</v>
       </c>
       <c r="E13">
-        <v>0.278653811122247</v>
+        <v>0.2786538111221972</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.665620691913375</v>
+        <v>4.665620691913404</v>
       </c>
       <c r="H13">
-        <v>2.960651116223417</v>
+        <v>2.96065111622346</v>
       </c>
       <c r="I13">
-        <v>0.05298086909996513</v>
+        <v>0.0529808690999225</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8134105309601836</v>
+        <v>0.8134105309601978</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.33581059321051</v>
+        <v>6.335810593210624</v>
       </c>
       <c r="C14">
-        <v>2.277170707970527</v>
+        <v>2.277170707970754</v>
       </c>
       <c r="D14">
-        <v>0.4568009096153958</v>
+        <v>0.4568009096151684</v>
       </c>
       <c r="E14">
-        <v>0.2727951337909431</v>
+        <v>0.2727951337909147</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.573354694773343</v>
+        <v>4.5733546947734</v>
       </c>
       <c r="H14">
-        <v>2.905077569738154</v>
+        <v>2.90507756973814</v>
       </c>
       <c r="I14">
-        <v>0.05185803726604732</v>
+        <v>0.05185803726602067</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.796089114865012</v>
+        <v>0.7960891148650049</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.254182032899166</v>
+        <v>6.254182032899394</v>
       </c>
       <c r="C15">
-        <v>2.247096310804181</v>
+        <v>2.247096310804011</v>
       </c>
       <c r="D15">
-        <v>0.45088705849696</v>
+        <v>0.4508870584967326</v>
       </c>
       <c r="E15">
         <v>0.269234036376055</v>
@@ -921,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.517331741393576</v>
+        <v>4.517331741393519</v>
       </c>
       <c r="H15">
-        <v>2.871351845642224</v>
+        <v>2.871351845642195</v>
       </c>
       <c r="I15">
-        <v>0.0511758558706088</v>
+        <v>0.05117585587067452</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7855564610383396</v>
+        <v>0.7855564610383254</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>5.793534772565636</v>
       </c>
       <c r="C16">
-        <v>2.077703431522821</v>
+        <v>2.077703431522991</v>
       </c>
       <c r="D16">
-        <v>0.4176070512826016</v>
+        <v>0.4176070512828574</v>
       </c>
       <c r="E16">
-        <v>0.2492174200092663</v>
+        <v>0.2492174200093089</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>4.203297160211434</v>
       </c>
       <c r="H16">
-        <v>2.682565714181735</v>
+        <v>2.682565714181763</v>
       </c>
       <c r="I16">
-        <v>0.04734580555322587</v>
+        <v>0.04734580555324186</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7262925879178184</v>
+        <v>0.7262925879178397</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>1.976172358433644</v>
       </c>
       <c r="D17">
-        <v>0.3976864839121106</v>
+        <v>0.3976864839127643</v>
       </c>
       <c r="E17">
-        <v>0.2372551016915878</v>
+        <v>0.2372551016915025</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.016358005668536</v>
+        <v>4.016358005668479</v>
       </c>
       <c r="H17">
-        <v>2.570407749880303</v>
+        <v>2.570407749880275</v>
       </c>
       <c r="I17">
-        <v>0.04506052001388916</v>
+        <v>0.04506052001386429</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6908232136391348</v>
+        <v>0.6908232136391419</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>5.359407562370848</v>
       </c>
       <c r="C18">
-        <v>1.918560520542201</v>
+        <v>1.918560520542087</v>
       </c>
       <c r="D18">
-        <v>0.3863930158683218</v>
+        <v>0.3863930158683502</v>
       </c>
       <c r="E18">
-        <v>0.2304797911202385</v>
+        <v>0.2304797911202527</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>2.507115027247067</v>
       </c>
       <c r="I18">
-        <v>0.0437673807722998</v>
+        <v>0.04376738077233711</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>5.306453214637486</v>
       </c>
       <c r="C19">
-        <v>1.899181192624496</v>
+        <v>1.899181192624326</v>
       </c>
       <c r="D19">
-        <v>0.3825958923974468</v>
+        <v>0.3825958923972763</v>
       </c>
       <c r="E19">
-        <v>0.228202827748504</v>
+        <v>0.2282028277484685</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.87528068448313</v>
+        <v>3.875280684483158</v>
       </c>
       <c r="H19">
         <v>2.485883213920999</v>
       </c>
       <c r="I19">
-        <v>0.04333299773296773</v>
+        <v>0.04333299773300503</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6639546284893356</v>
+        <v>0.6639546284893072</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>5.545984111113</v>
       </c>
       <c r="C20">
-        <v>1.986897218841307</v>
+        <v>1.986897218841534</v>
       </c>
       <c r="D20">
-        <v>0.3997896758220918</v>
+        <v>0.3997896758218644</v>
       </c>
       <c r="E20">
-        <v>0.2385173887716689</v>
+        <v>0.2385173887717116</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.036057205097137</v>
+        <v>4.036057205097109</v>
       </c>
       <c r="H20">
-        <v>2.582218452562117</v>
+        <v>2.582218452562131</v>
       </c>
       <c r="I20">
-        <v>0.0453015385178297</v>
+        <v>0.04530153851785101</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.694567946830368</v>
+        <v>0.6945679468303823</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.375088759953655</v>
+        <v>6.375088759953769</v>
       </c>
       <c r="C21">
-        <v>2.291648140625398</v>
+        <v>2.291648140625114</v>
       </c>
       <c r="D21">
-        <v>0.4596482817784135</v>
+        <v>0.4596482817786409</v>
       </c>
       <c r="E21">
-        <v>0.2745101579445048</v>
+        <v>0.2745101579444835</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.600351434589641</v>
+        <v>4.600351434589726</v>
       </c>
       <c r="H21">
-        <v>2.921334434154943</v>
+        <v>2.921334434154929</v>
       </c>
       <c r="I21">
-        <v>0.05218666021938745</v>
+        <v>0.05218666021937679</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8011605200846503</v>
+        <v>0.8011605200846788</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.938892109809672</v>
+        <v>6.938892109809842</v>
       </c>
       <c r="C22">
-        <v>2.499904940383715</v>
+        <v>2.499904940383885</v>
       </c>
       <c r="D22">
-        <v>0.5006413835393175</v>
+        <v>0.5006413835394596</v>
       </c>
       <c r="E22">
-        <v>0.2992329245814958</v>
+        <v>0.2992329245814886</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.990643650575606</v>
+        <v>4.990643650575635</v>
       </c>
       <c r="H22">
-        <v>3.156699919053082</v>
+        <v>3.156699919053096</v>
       </c>
       <c r="I22">
-        <v>0.05692995927563516</v>
+        <v>0.05692995927561384</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8741894798796039</v>
+        <v>0.8741894798796324</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.635699972821897</v>
+        <v>6.635699972822067</v>
       </c>
       <c r="C23">
         <v>2.387808307118405</v>
       </c>
       <c r="D23">
-        <v>0.4785688489779432</v>
+        <v>0.4785688489779716</v>
       </c>
       <c r="E23">
-        <v>0.2859136777937508</v>
+        <v>0.2859136777938218</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.780118795917843</v>
+        <v>4.78011879591773</v>
       </c>
       <c r="H23">
-        <v>3.029665472575729</v>
+        <v>3.029665472575701</v>
       </c>
       <c r="I23">
-        <v>0.05437312807071493</v>
+        <v>0.05437312807066874</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.532747450948477</v>
+        <v>5.53274745094842</v>
       </c>
       <c r="C24">
-        <v>1.982046164374253</v>
+        <v>1.98204616437431</v>
       </c>
       <c r="D24">
-        <v>0.3988383312903352</v>
+        <v>0.3988383312907331</v>
       </c>
       <c r="E24">
-        <v>0.2379463938183832</v>
+        <v>0.2379463938183974</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.027145480835941</v>
+        <v>4.027145480835998</v>
       </c>
       <c r="H24">
-        <v>2.576875161951534</v>
+        <v>2.576875161951577</v>
       </c>
       <c r="I24">
-        <v>0.04519251012109216</v>
+        <v>0.04519251012104242</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6928740762439745</v>
+        <v>0.6928740762439958</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.414201253599117</v>
+        <v>4.414201253599344</v>
       </c>
       <c r="C25">
-        <v>1.573706667740112</v>
+        <v>1.573706667740055</v>
       </c>
       <c r="D25">
-        <v>0.3189753460879814</v>
+        <v>0.3189753460880524</v>
       </c>
       <c r="E25">
-        <v>0.1901327035484215</v>
+        <v>0.1901327035484002</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.285944808604853</v>
+        <v>3.285944808604839</v>
       </c>
       <c r="H25">
-        <v>2.134008746958571</v>
+        <v>2.134008746958543</v>
       </c>
       <c r="I25">
-        <v>0.03608542248236368</v>
+        <v>0.03608542248238145</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5506642839992608</v>
+        <v>0.550664283999275</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.631733593481783</v>
+        <v>3.631733593481897</v>
       </c>
       <c r="C2">
         <v>1.289893918934638</v>
       </c>
       <c r="D2">
-        <v>0.263793479292616</v>
+        <v>0.2637934792922749</v>
       </c>
       <c r="E2">
-        <v>0.1572399147255439</v>
+        <v>0.1572399147255652</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.782714033851818</v>
+        <v>2.782714033851789</v>
       </c>
       <c r="H2">
-        <v>1.835384188745422</v>
+        <v>1.835384188745408</v>
       </c>
       <c r="I2">
-        <v>0.02984756620862328</v>
+        <v>0.02984756620865703</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4523305248612672</v>
+        <v>0.452330524861253</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.119358239453675</v>
+        <v>3.119358239453959</v>
       </c>
       <c r="C3">
-        <v>1.104846718158512</v>
+        <v>1.104846718158569</v>
       </c>
       <c r="D3">
-        <v>0.2280142547456165</v>
+        <v>0.2280142547457444</v>
       </c>
       <c r="E3">
-        <v>0.1359806924618923</v>
+        <v>0.1359806924619029</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.461029543887804</v>
+        <v>2.46102954388779</v>
       </c>
       <c r="H3">
-        <v>1.645606240559317</v>
+        <v>1.645606240559331</v>
       </c>
       <c r="I3">
-        <v>0.02582873042694978</v>
+        <v>0.02582873042691602</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3884972998724194</v>
+        <v>0.3884972998723697</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.811504617269009</v>
+        <v>2.811504617268895</v>
       </c>
       <c r="C4">
-        <v>0.9939613402561633</v>
+        <v>0.9939613402556802</v>
       </c>
       <c r="D4">
-        <v>0.2066703278989337</v>
+        <v>0.2066703278987916</v>
       </c>
       <c r="E4">
-        <v>0.1233260583692619</v>
+        <v>0.1233260583692264</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>2.271124110360304</v>
       </c>
       <c r="H4">
-        <v>1.534071244960586</v>
+        <v>1.534071244960558</v>
       </c>
       <c r="I4">
-        <v>0.02344166090744082</v>
+        <v>0.02344166090745503</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3503738691275728</v>
+        <v>0.3503738691275657</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.687478420290461</v>
+        <v>2.687478420290518</v>
       </c>
       <c r="C5">
-        <v>0.9493505907170459</v>
+        <v>0.9493505907172448</v>
       </c>
       <c r="D5">
-        <v>0.1981070719704405</v>
+        <v>0.1981070719704263</v>
       </c>
       <c r="E5">
-        <v>0.1182550779582172</v>
+        <v>0.1182550779582385</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>2.195397625249427</v>
       </c>
       <c r="H5">
-        <v>1.489714759103293</v>
+        <v>1.489714759103279</v>
       </c>
       <c r="I5">
-        <v>0.02248625672898541</v>
+        <v>0.02248625672897653</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3350666739321326</v>
+        <v>0.3350666739321611</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.666962828168835</v>
+        <v>2.666962828169005</v>
       </c>
       <c r="C6">
         <v>0.9419747777808709</v>
       </c>
       <c r="D6">
-        <v>0.1966926673618019</v>
+        <v>0.196692667361944</v>
       </c>
       <c r="E6">
-        <v>0.1174178442320439</v>
+        <v>0.1174178442320262</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.182916814858146</v>
+        <v>2.182916814858118</v>
       </c>
       <c r="H6">
         <v>1.482411196084882</v>
       </c>
       <c r="I6">
-        <v>0.02232858180056496</v>
+        <v>0.02232858180055253</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.809826514216184</v>
+        <v>2.809826514216354</v>
       </c>
       <c r="C7">
-        <v>0.9933575101713075</v>
+        <v>0.9933575101715064</v>
       </c>
       <c r="D7">
-        <v>0.2065543238738314</v>
+        <v>0.2065543238736041</v>
       </c>
       <c r="E7">
-        <v>0.1232573393782452</v>
+        <v>0.1232573393782843</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.27009642168764</v>
+        <v>2.270096421687654</v>
       </c>
       <c r="H7">
         <v>1.533468802675529</v>
       </c>
       <c r="I7">
-        <v>0.02342870934761088</v>
+        <v>0.02342870934761798</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3501665565510166</v>
+        <v>0.3501665565509882</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.453493356312606</v>
+        <v>3.45349335631272</v>
       </c>
       <c r="C8">
-        <v>1.225450571544684</v>
+        <v>1.225450571544911</v>
       </c>
       <c r="D8">
-        <v>0.2513127556443493</v>
+        <v>0.2513127556444772</v>
       </c>
       <c r="E8">
-        <v>0.1498178179699678</v>
+        <v>0.1498178179700034</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>2.670056548025059</v>
       </c>
       <c r="H8">
-        <v>1.76881113568713</v>
+        <v>1.768811135687116</v>
       </c>
       <c r="I8">
-        <v>0.02844330441369003</v>
+        <v>0.02844330441369536</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4300725581501865</v>
+        <v>0.4300725581501794</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.783425985555937</v>
+        <v>4.78342598555588</v>
       </c>
       <c r="C9">
-        <v>1.708151366697507</v>
+        <v>1.70815136669745</v>
       </c>
       <c r="D9">
-        <v>0.3452178654969771</v>
+        <v>0.3452178654973039</v>
       </c>
       <c r="E9">
-        <v>0.2058175015428034</v>
+        <v>0.2058175015427537</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.527931646817365</v>
+        <v>3.527931646817393</v>
       </c>
       <c r="H9">
-        <v>2.278239364326112</v>
+        <v>2.278239364326126</v>
       </c>
       <c r="I9">
-        <v>0.03906789424450352</v>
+        <v>0.03906789424448753</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5974003584973033</v>
+        <v>0.5974003584972891</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.825394915373579</v>
+        <v>5.825394915373352</v>
       </c>
       <c r="C10">
-        <v>2.089401707789079</v>
+        <v>2.089401707789364</v>
       </c>
       <c r="D10">
-        <v>0.4199036412771306</v>
+        <v>0.4199036412771591</v>
       </c>
       <c r="E10">
-        <v>0.2505974491279446</v>
+        <v>0.2505974491279161</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.224899526330546</v>
+        <v>4.224899526330489</v>
       </c>
       <c r="H10">
-        <v>2.695537536935831</v>
+        <v>2.695537536935817</v>
       </c>
       <c r="I10">
-        <v>0.04760962233391375</v>
+        <v>0.04760962233389421</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7303819152910052</v>
+        <v>0.7303819152910123</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.320171353943181</v>
+        <v>6.320171353943294</v>
       </c>
       <c r="C11">
-        <v>2.271407402490979</v>
+        <v>2.271407402490922</v>
       </c>
       <c r="D11">
-        <v>0.4556674953720403</v>
+        <v>0.4556674953720119</v>
       </c>
       <c r="E11">
-        <v>0.2721125380621814</v>
+        <v>0.272112538062153</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.562612639123586</v>
+        <v>4.562612639123557</v>
       </c>
       <c r="H11">
         <v>2.898609809228418</v>
       </c>
       <c r="I11">
-        <v>0.05172725750965945</v>
+        <v>0.05172725750966478</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7940704462821984</v>
+        <v>0.7940704462822552</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.51121999045256</v>
+        <v>6.51121999045273</v>
       </c>
       <c r="C12">
-        <v>2.34185556054814</v>
+        <v>2.341855560548197</v>
       </c>
       <c r="D12">
-        <v>0.4695254272884597</v>
+        <v>0.4695254272885165</v>
       </c>
       <c r="E12">
-        <v>0.280461577414215</v>
+        <v>0.2804615774142007</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.694114697947754</v>
+        <v>4.694114697947697</v>
       </c>
       <c r="H12">
-        <v>2.977820913108147</v>
+        <v>2.977820913108118</v>
       </c>
       <c r="I12">
-        <v>0.05332746150696366</v>
+        <v>0.05332746150699919</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.818753588966814</v>
+        <v>0.8187535889667714</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.469897478263363</v>
+        <v>6.469897478263249</v>
       </c>
       <c r="C13">
-        <v>2.326610020526346</v>
+        <v>2.326610020526402</v>
       </c>
       <c r="D13">
-        <v>0.4665258150193949</v>
+        <v>0.4665258150192244</v>
       </c>
       <c r="E13">
-        <v>0.2786538111221972</v>
+        <v>0.278653811122247</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.665620691913404</v>
+        <v>4.665620691913375</v>
       </c>
       <c r="H13">
-        <v>2.96065111622346</v>
+        <v>2.960651116223417</v>
       </c>
       <c r="I13">
-        <v>0.0529808690999225</v>
+        <v>0.05298086909996513</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8134105309601978</v>
+        <v>0.8134105309601836</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.335810593210624</v>
+        <v>6.33581059321051</v>
       </c>
       <c r="C14">
-        <v>2.277170707970754</v>
+        <v>2.277170707970527</v>
       </c>
       <c r="D14">
-        <v>0.4568009096151684</v>
+        <v>0.4568009096153958</v>
       </c>
       <c r="E14">
-        <v>0.2727951337909147</v>
+        <v>0.2727951337909431</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.5733546947734</v>
+        <v>4.573354694773343</v>
       </c>
       <c r="H14">
-        <v>2.90507756973814</v>
+        <v>2.905077569738154</v>
       </c>
       <c r="I14">
-        <v>0.05185803726602067</v>
+        <v>0.05185803726604732</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7960891148650049</v>
+        <v>0.796089114865012</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.254182032899394</v>
+        <v>6.254182032899166</v>
       </c>
       <c r="C15">
-        <v>2.247096310804011</v>
+        <v>2.247096310804181</v>
       </c>
       <c r="D15">
-        <v>0.4508870584967326</v>
+        <v>0.45088705849696</v>
       </c>
       <c r="E15">
         <v>0.269234036376055</v>
@@ -921,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.517331741393519</v>
+        <v>4.517331741393576</v>
       </c>
       <c r="H15">
-        <v>2.871351845642195</v>
+        <v>2.871351845642224</v>
       </c>
       <c r="I15">
-        <v>0.05117585587067452</v>
+        <v>0.0511758558706088</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7855564610383254</v>
+        <v>0.7855564610383396</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>5.793534772565636</v>
       </c>
       <c r="C16">
-        <v>2.077703431522991</v>
+        <v>2.077703431522821</v>
       </c>
       <c r="D16">
-        <v>0.4176070512828574</v>
+        <v>0.4176070512826016</v>
       </c>
       <c r="E16">
-        <v>0.2492174200093089</v>
+        <v>0.2492174200092663</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>4.203297160211434</v>
       </c>
       <c r="H16">
-        <v>2.682565714181763</v>
+        <v>2.682565714181735</v>
       </c>
       <c r="I16">
-        <v>0.04734580555324186</v>
+        <v>0.04734580555322587</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7262925879178397</v>
+        <v>0.7262925879178184</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>1.976172358433644</v>
       </c>
       <c r="D17">
-        <v>0.3976864839127643</v>
+        <v>0.3976864839121106</v>
       </c>
       <c r="E17">
-        <v>0.2372551016915025</v>
+        <v>0.2372551016915878</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.016358005668479</v>
+        <v>4.016358005668536</v>
       </c>
       <c r="H17">
-        <v>2.570407749880275</v>
+        <v>2.570407749880303</v>
       </c>
       <c r="I17">
-        <v>0.04506052001386429</v>
+        <v>0.04506052001388916</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6908232136391419</v>
+        <v>0.6908232136391348</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>5.359407562370848</v>
       </c>
       <c r="C18">
-        <v>1.918560520542087</v>
+        <v>1.918560520542201</v>
       </c>
       <c r="D18">
-        <v>0.3863930158683502</v>
+        <v>0.3863930158683218</v>
       </c>
       <c r="E18">
-        <v>0.2304797911202527</v>
+        <v>0.2304797911202385</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>2.507115027247067</v>
       </c>
       <c r="I18">
-        <v>0.04376738077233711</v>
+        <v>0.0437673807722998</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>5.306453214637486</v>
       </c>
       <c r="C19">
-        <v>1.899181192624326</v>
+        <v>1.899181192624496</v>
       </c>
       <c r="D19">
-        <v>0.3825958923972763</v>
+        <v>0.3825958923974468</v>
       </c>
       <c r="E19">
-        <v>0.2282028277484685</v>
+        <v>0.228202827748504</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.875280684483158</v>
+        <v>3.87528068448313</v>
       </c>
       <c r="H19">
         <v>2.485883213920999</v>
       </c>
       <c r="I19">
-        <v>0.04333299773300503</v>
+        <v>0.04333299773296773</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6639546284893072</v>
+        <v>0.6639546284893356</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>5.545984111113</v>
       </c>
       <c r="C20">
-        <v>1.986897218841534</v>
+        <v>1.986897218841307</v>
       </c>
       <c r="D20">
-        <v>0.3997896758218644</v>
+        <v>0.3997896758220918</v>
       </c>
       <c r="E20">
-        <v>0.2385173887717116</v>
+        <v>0.2385173887716689</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.036057205097109</v>
+        <v>4.036057205097137</v>
       </c>
       <c r="H20">
-        <v>2.582218452562131</v>
+        <v>2.582218452562117</v>
       </c>
       <c r="I20">
-        <v>0.04530153851785101</v>
+        <v>0.0453015385178297</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6945679468303823</v>
+        <v>0.694567946830368</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.375088759953769</v>
+        <v>6.375088759953655</v>
       </c>
       <c r="C21">
-        <v>2.291648140625114</v>
+        <v>2.291648140625398</v>
       </c>
       <c r="D21">
-        <v>0.4596482817786409</v>
+        <v>0.4596482817784135</v>
       </c>
       <c r="E21">
-        <v>0.2745101579444835</v>
+        <v>0.2745101579445048</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.600351434589726</v>
+        <v>4.600351434589641</v>
       </c>
       <c r="H21">
-        <v>2.921334434154929</v>
+        <v>2.921334434154943</v>
       </c>
       <c r="I21">
-        <v>0.05218666021937679</v>
+        <v>0.05218666021938745</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8011605200846788</v>
+        <v>0.8011605200846503</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.938892109809842</v>
+        <v>6.938892109809672</v>
       </c>
       <c r="C22">
-        <v>2.499904940383885</v>
+        <v>2.499904940383715</v>
       </c>
       <c r="D22">
-        <v>0.5006413835394596</v>
+        <v>0.5006413835393175</v>
       </c>
       <c r="E22">
-        <v>0.2992329245814886</v>
+        <v>0.2992329245814958</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.990643650575635</v>
+        <v>4.990643650575606</v>
       </c>
       <c r="H22">
-        <v>3.156699919053096</v>
+        <v>3.156699919053082</v>
       </c>
       <c r="I22">
-        <v>0.05692995927561384</v>
+        <v>0.05692995927563516</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8741894798796324</v>
+        <v>0.8741894798796039</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.635699972822067</v>
+        <v>6.635699972821897</v>
       </c>
       <c r="C23">
         <v>2.387808307118405</v>
       </c>
       <c r="D23">
-        <v>0.4785688489779716</v>
+        <v>0.4785688489779432</v>
       </c>
       <c r="E23">
-        <v>0.2859136777938218</v>
+        <v>0.2859136777937508</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.78011879591773</v>
+        <v>4.780118795917843</v>
       </c>
       <c r="H23">
-        <v>3.029665472575701</v>
+        <v>3.029665472575729</v>
       </c>
       <c r="I23">
-        <v>0.05437312807066874</v>
+        <v>0.05437312807071493</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.53274745094842</v>
+        <v>5.532747450948477</v>
       </c>
       <c r="C24">
-        <v>1.98204616437431</v>
+        <v>1.982046164374253</v>
       </c>
       <c r="D24">
-        <v>0.3988383312907331</v>
+        <v>0.3988383312903352</v>
       </c>
       <c r="E24">
-        <v>0.2379463938183974</v>
+        <v>0.2379463938183832</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.027145480835998</v>
+        <v>4.027145480835941</v>
       </c>
       <c r="H24">
-        <v>2.576875161951577</v>
+        <v>2.576875161951534</v>
       </c>
       <c r="I24">
-        <v>0.04519251012104242</v>
+        <v>0.04519251012109216</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6928740762439958</v>
+        <v>0.6928740762439745</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.414201253599344</v>
+        <v>4.414201253599117</v>
       </c>
       <c r="C25">
-        <v>1.573706667740055</v>
+        <v>1.573706667740112</v>
       </c>
       <c r="D25">
-        <v>0.3189753460880524</v>
+        <v>0.3189753460879814</v>
       </c>
       <c r="E25">
-        <v>0.1901327035484002</v>
+        <v>0.1901327035484215</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.285944808604839</v>
+        <v>3.285944808604853</v>
       </c>
       <c r="H25">
-        <v>2.134008746958543</v>
+        <v>2.134008746958571</v>
       </c>
       <c r="I25">
-        <v>0.03608542248238145</v>
+        <v>0.03608542248236368</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.550664283999275</v>
+        <v>0.5506642839992608</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.631733593481897</v>
+        <v>3.631393478818609</v>
       </c>
       <c r="C2">
-        <v>1.289893918934638</v>
+        <v>1.288609164615025</v>
       </c>
       <c r="D2">
-        <v>0.2637934792922749</v>
+        <v>0.2637941934174819</v>
       </c>
       <c r="E2">
-        <v>0.1572399147255652</v>
+        <v>0.1572745976813934</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.782714033851789</v>
+        <v>0.9036088641955615</v>
       </c>
       <c r="H2">
-        <v>1.835384188745408</v>
+        <v>1.874072926865566</v>
       </c>
       <c r="I2">
-        <v>0.02984756620865703</v>
+        <v>1.829949713399145</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02986048897168914</v>
       </c>
       <c r="K2">
-        <v>0.452330524861253</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.4521666368027155</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.119358239453959</v>
+        <v>3.119153264942838</v>
       </c>
       <c r="C3">
-        <v>1.104846718158569</v>
+        <v>1.103767502327457</v>
       </c>
       <c r="D3">
-        <v>0.2280142547457444</v>
+        <v>0.2280186983439307</v>
       </c>
       <c r="E3">
-        <v>0.1359806924619029</v>
+        <v>0.1360130797607404</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.46102954388779</v>
+        <v>0.7928842349681133</v>
       </c>
       <c r="H3">
-        <v>1.645606240559331</v>
+        <v>1.664356359289371</v>
       </c>
       <c r="I3">
-        <v>0.02582873042691602</v>
+        <v>1.640841043788541</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02584038769718333</v>
       </c>
       <c r="K3">
-        <v>0.3884972998723697</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.3883624927095539</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.811504617268895</v>
+        <v>2.811366417854288</v>
       </c>
       <c r="C4">
-        <v>0.9939613402556802</v>
+        <v>0.99300058561073</v>
       </c>
       <c r="D4">
-        <v>0.2066703278987916</v>
+        <v>0.2066764071705052</v>
       </c>
       <c r="E4">
-        <v>0.1233260583692264</v>
+        <v>0.123356787669902</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.271124110360304</v>
+        <v>0.7273998676684386</v>
       </c>
       <c r="H4">
-        <v>1.534071244960558</v>
+        <v>1.540675350651256</v>
       </c>
       <c r="I4">
-        <v>0.02344166090745503</v>
+        <v>1.529705522754028</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02345252264549913</v>
       </c>
       <c r="K4">
-        <v>0.3503738691275657</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.3502551727943839</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.687478420290518</v>
+        <v>2.687363989791663</v>
       </c>
       <c r="C5">
-        <v>0.9493505907172448</v>
+        <v>0.9484364877223754</v>
       </c>
       <c r="D5">
-        <v>0.1981070719704263</v>
+        <v>0.1981136852907639</v>
       </c>
       <c r="E5">
-        <v>0.1182550779582385</v>
+        <v>0.118285083923201</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.195397625249427</v>
+        <v>0.7012582178090838</v>
       </c>
       <c r="H5">
-        <v>1.489714759103279</v>
+        <v>1.491387252325453</v>
       </c>
       <c r="I5">
-        <v>0.02248625672897653</v>
+        <v>1.485509476424781</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.02249679155135809</v>
       </c>
       <c r="K5">
-        <v>0.3350666739321611</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.334954181240434</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.666962828169005</v>
+        <v>2.666852153177331</v>
       </c>
       <c r="C6">
-        <v>0.9419747777808709</v>
+        <v>0.9410683318431268</v>
       </c>
       <c r="D6">
-        <v>0.196692667361944</v>
+        <v>0.1966993621851429</v>
       </c>
       <c r="E6">
-        <v>0.1174178442320262</v>
+        <v>0.1174477275826966</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.182916814858118</v>
+        <v>0.6969479496418387</v>
       </c>
       <c r="H6">
-        <v>1.482411196084882</v>
+        <v>1.48326571789076</v>
       </c>
       <c r="I6">
-        <v>0.02232858180055253</v>
+        <v>1.478232426551983</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.02233906222100224</v>
       </c>
       <c r="K6">
-        <v>0.3325376186152056</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.332426136205342</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.809826514216354</v>
+        <v>2.809688648532699</v>
       </c>
       <c r="C7">
-        <v>0.9933575101715064</v>
+        <v>0.9923973908613846</v>
       </c>
       <c r="D7">
-        <v>0.2065543238736041</v>
+        <v>0.2065604108464214</v>
       </c>
       <c r="E7">
-        <v>0.1232573393782843</v>
+        <v>0.1232880590995329</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.270096421687654</v>
+        <v>0.7270452161445746</v>
       </c>
       <c r="H7">
-        <v>1.533468802675529</v>
+        <v>1.540006333755144</v>
       </c>
       <c r="I7">
-        <v>0.02342870934761798</v>
+        <v>1.529105253075087</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.02343956668562619</v>
       </c>
       <c r="K7">
-        <v>0.3501665565509882</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3500479452539551</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.45349335631272</v>
+        <v>3.45320361396449</v>
       </c>
       <c r="C8">
-        <v>1.225450571544911</v>
+        <v>1.224238504836705</v>
       </c>
       <c r="D8">
-        <v>0.2513127556444772</v>
+        <v>0.2513149127105407</v>
       </c>
       <c r="E8">
-        <v>0.1498178179700034</v>
+        <v>0.1498517708941449</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.670056548025059</v>
+        <v>0.8648575001173953</v>
       </c>
       <c r="H8">
-        <v>1.768811135687116</v>
+        <v>1.800600997527326</v>
       </c>
       <c r="I8">
-        <v>0.02844330441369536</v>
+        <v>1.763610153392747</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.02845579600707993</v>
       </c>
       <c r="K8">
-        <v>0.4300725581501794</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.4299191101139854</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.78342598555588</v>
+        <v>4.782674770146741</v>
       </c>
       <c r="C9">
-        <v>1.70815136669745</v>
+        <v>1.706365956770924</v>
       </c>
       <c r="D9">
-        <v>0.3452178654973039</v>
+        <v>0.3452052847972169</v>
       </c>
       <c r="E9">
-        <v>0.2058175015427537</v>
+        <v>0.2058549431165844</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.527931646817393</v>
+        <v>1.159398529168868</v>
       </c>
       <c r="H9">
-        <v>2.278239364326126</v>
+        <v>2.360648850044242</v>
       </c>
       <c r="I9">
-        <v>0.03906789424448753</v>
+        <v>2.27127619584094</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.03908332134896675</v>
       </c>
       <c r="K9">
-        <v>0.5974003584972891</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.5971604020075745</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.825394915373352</v>
+        <v>5.824141901975793</v>
       </c>
       <c r="C10">
-        <v>2.089401707789364</v>
+        <v>2.087115007489331</v>
       </c>
       <c r="D10">
-        <v>0.4199036412771591</v>
+        <v>0.4198725139283397</v>
       </c>
       <c r="E10">
-        <v>0.2505974491279161</v>
+        <v>0.2506340101611073</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.224899526330489</v>
+        <v>1.3979813015346</v>
       </c>
       <c r="H10">
-        <v>2.695537536935817</v>
+        <v>2.816377068278314</v>
       </c>
       <c r="I10">
-        <v>0.04760962233389421</v>
+        <v>2.687155843450327</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0476267893197786</v>
       </c>
       <c r="K10">
-        <v>0.7303819152910123</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.7300593723640958</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.320171353943294</v>
+        <v>6.318634897749007</v>
       </c>
       <c r="C11">
-        <v>2.271407402490922</v>
+        <v>2.268865420964289</v>
       </c>
       <c r="D11">
-        <v>0.4556674953720119</v>
+        <v>0.4556251245759313</v>
       </c>
       <c r="E11">
-        <v>0.272112538062153</v>
+        <v>0.2721473651257398</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.562612639123557</v>
+        <v>1.513415816060927</v>
       </c>
       <c r="H11">
-        <v>2.898609809228418</v>
+        <v>3.037365499901682</v>
       </c>
       <c r="I11">
-        <v>0.05172725750966478</v>
+        <v>2.889540504874347</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.05174503291929788</v>
       </c>
       <c r="K11">
-        <v>0.7940704462822552</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.7937036520429643</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.51121999045273</v>
+        <v>6.509565973772396</v>
       </c>
       <c r="C12">
-        <v>2.341855560548197</v>
+        <v>2.339211865975074</v>
       </c>
       <c r="D12">
-        <v>0.4695254272885165</v>
+        <v>0.4694782599834468</v>
       </c>
       <c r="E12">
-        <v>0.2804615774142007</v>
+        <v>0.2804954838202818</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.694114697947697</v>
+        <v>1.55833902556904</v>
       </c>
       <c r="H12">
-        <v>2.977820913108118</v>
+        <v>3.123440862182719</v>
       </c>
       <c r="I12">
-        <v>0.05332746150699919</v>
+        <v>2.968483413281476</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0533454290579769</v>
       </c>
       <c r="K12">
-        <v>0.8187535889667714</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.8183687772717292</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.469897478263249</v>
+        <v>6.468269279215065</v>
       </c>
       <c r="C13">
-        <v>2.326610020526402</v>
+        <v>2.323988477508294</v>
       </c>
       <c r="D13">
-        <v>0.4665258150192244</v>
+        <v>0.4664797073366742</v>
       </c>
       <c r="E13">
-        <v>0.278653811122247</v>
+        <v>0.2786879289844819</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.665620691913375</v>
+        <v>1.548606184478473</v>
       </c>
       <c r="H13">
-        <v>2.960651116223417</v>
+        <v>3.104788856526255</v>
       </c>
       <c r="I13">
-        <v>0.05298086909996513</v>
+        <v>2.951371757238604</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.05299879721243173</v>
       </c>
       <c r="K13">
-        <v>0.8134105309601836</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.8130296615055386</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.33581059321051</v>
+        <v>6.334264685812457</v>
       </c>
       <c r="C14">
-        <v>2.277170707970527</v>
+        <v>2.274620467160503</v>
       </c>
       <c r="D14">
-        <v>0.4568009096153958</v>
+        <v>0.4567581559420546</v>
       </c>
       <c r="E14">
-        <v>0.2727951337909431</v>
+        <v>0.2728298909096907</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.573354694773343</v>
+        <v>1.517085995685505</v>
       </c>
       <c r="H14">
-        <v>2.905077569738154</v>
+        <v>3.044396274375146</v>
       </c>
       <c r="I14">
-        <v>0.05185803726604732</v>
+        <v>2.895986368951341</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.05187582933498192</v>
       </c>
       <c r="K14">
-        <v>0.796089114865012</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.7957208656342587</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.254182032899166</v>
+        <v>6.252685119950684</v>
       </c>
       <c r="C15">
-        <v>2.247096310804181</v>
+        <v>2.244589048844716</v>
       </c>
       <c r="D15">
-        <v>0.45088705849696</v>
+        <v>0.4508462843051007</v>
       </c>
       <c r="E15">
-        <v>0.269234036376055</v>
+        <v>0.2692691480908636</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.517331741393576</v>
+        <v>1.497943898699305</v>
       </c>
       <c r="H15">
-        <v>2.871351845642224</v>
+        <v>3.007729725395535</v>
       </c>
       <c r="I15">
-        <v>0.0511758558706088</v>
+        <v>2.862374820473534</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.05119355919404533</v>
       </c>
       <c r="K15">
-        <v>0.7855564610383396</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.7851957674249093</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.793534772565636</v>
+        <v>5.79229899143354</v>
       </c>
       <c r="C16">
-        <v>2.077703431522821</v>
+        <v>2.075432777082881</v>
       </c>
       <c r="D16">
-        <v>0.4176070512826016</v>
+        <v>0.417576591640568</v>
       </c>
       <c r="E16">
-        <v>0.2492174200092663</v>
+        <v>0.2492540619014108</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.203297160211434</v>
+        <v>1.390593904926874</v>
       </c>
       <c r="H16">
-        <v>2.682565714181735</v>
+        <v>2.802244518149109</v>
       </c>
       <c r="I16">
-        <v>0.04734580555322587</v>
+        <v>2.674227968832668</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.04736292817336896</v>
       </c>
       <c r="K16">
-        <v>0.7262925879178184</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.7259727788776402</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.516718468627971</v>
+        <v>5.515627318750376</v>
       </c>
       <c r="C17">
-        <v>1.976172358433644</v>
+        <v>1.974039170861545</v>
       </c>
       <c r="D17">
-        <v>0.3976864839121106</v>
+        <v>0.3976615496116267</v>
       </c>
       <c r="E17">
-        <v>0.2372551016915878</v>
+        <v>0.237292296669871</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.016358005668536</v>
+        <v>1.326647513425684</v>
       </c>
       <c r="H17">
-        <v>2.570407749880303</v>
+        <v>2.679964621028432</v>
       </c>
       <c r="I17">
-        <v>0.04506052001388916</v>
+        <v>2.562450252375214</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.04507723233983185</v>
       </c>
       <c r="K17">
-        <v>0.6908232136391348</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.69052658836479</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.359407562370848</v>
+        <v>5.358394577151046</v>
       </c>
       <c r="C18">
-        <v>1.918560520542201</v>
+        <v>1.916503919076547</v>
       </c>
       <c r="D18">
-        <v>0.3863930158683218</v>
+        <v>0.3863710056080834</v>
       </c>
       <c r="E18">
-        <v>0.2304797911202385</v>
+        <v>0.2305171842203251</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.910734458197368</v>
+        <v>1.290501507979855</v>
       </c>
       <c r="H18">
-        <v>2.507115027247067</v>
+        <v>2.610889659081408</v>
       </c>
       <c r="I18">
-        <v>0.0437673807722998</v>
+        <v>2.499372381274583</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.04378384080321318</v>
       </c>
       <c r="K18">
-        <v>0.6707153425994576</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.670431445374092</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.306453214637486</v>
+        <v>5.305465891397773</v>
       </c>
       <c r="C19">
-        <v>1.899181192624496</v>
+        <v>1.897150125141025</v>
       </c>
       <c r="D19">
-        <v>0.3825958923974468</v>
+        <v>0.3825748320002305</v>
       </c>
       <c r="E19">
-        <v>0.228202827748504</v>
+        <v>0.2282402691396186</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.87528068448313</v>
+        <v>1.278366091221415</v>
       </c>
       <c r="H19">
-        <v>2.485883213920999</v>
+        <v>2.587706415436571</v>
       </c>
       <c r="I19">
-        <v>0.04333299773296773</v>
+        <v>2.478212695997101</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.04334936983519633</v>
       </c>
       <c r="K19">
-        <v>0.6639546284893356</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.6636749442879903</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.545984111113</v>
+        <v>5.544878099428729</v>
       </c>
       <c r="C20">
-        <v>1.986897218841307</v>
+        <v>1.984749661648436</v>
       </c>
       <c r="D20">
-        <v>0.3997896758220918</v>
+        <v>0.3997641804720615</v>
       </c>
       <c r="E20">
-        <v>0.2385173887716689</v>
+        <v>0.2385545377388283</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.036057205097137</v>
+        <v>1.333387633479873</v>
       </c>
       <c r="H20">
-        <v>2.582218452562117</v>
+        <v>2.692848605394659</v>
       </c>
       <c r="I20">
-        <v>0.0453015385178297</v>
+        <v>2.574220887275246</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.04531829628030515</v>
       </c>
       <c r="K20">
-        <v>0.694567946830368</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.6942689182750996</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.375088759953655</v>
+        <v>6.373518980778613</v>
       </c>
       <c r="C21">
-        <v>2.291648140625398</v>
+        <v>2.289077104127841</v>
       </c>
       <c r="D21">
-        <v>0.4596482817784135</v>
+        <v>0.4596045588781408</v>
       </c>
       <c r="E21">
-        <v>0.2745101579445048</v>
+        <v>0.2745447351691581</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.600351434589641</v>
+        <v>1.526309410961716</v>
       </c>
       <c r="H21">
-        <v>2.921334434154943</v>
+        <v>3.062066282814129</v>
       </c>
       <c r="I21">
-        <v>0.05218666021938745</v>
+        <v>2.912188194912915</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.05220449340435351</v>
       </c>
       <c r="K21">
-        <v>0.8011605200846503</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.8007886010555865</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.938892109809672</v>
+        <v>6.936958004991766</v>
       </c>
       <c r="C22">
-        <v>2.499904940383715</v>
+        <v>2.497026952228794</v>
       </c>
       <c r="D22">
-        <v>0.5006413835393175</v>
+        <v>0.5005825081879607</v>
       </c>
       <c r="E22">
-        <v>0.2992329245814958</v>
+        <v>0.2992642275797124</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.990643650575606</v>
+        <v>1.659589259285241</v>
       </c>
       <c r="H22">
-        <v>3.156699919053082</v>
+        <v>3.317581192917856</v>
       </c>
       <c r="I22">
-        <v>0.05692995927563516</v>
+        <v>3.146756237558066</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.05694826298772071</v>
       </c>
       <c r="K22">
-        <v>0.8741894798796039</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.873762360929021</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.635699972821897</v>
+        <v>6.633966869544111</v>
       </c>
       <c r="C23">
-        <v>2.387808307118405</v>
+        <v>2.385097371158906</v>
       </c>
       <c r="D23">
-        <v>0.4785688489779432</v>
+        <v>0.4785184145423216</v>
       </c>
       <c r="E23">
-        <v>0.2859136777937508</v>
+        <v>0.2859469053032271</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.780118795917843</v>
+        <v>1.587712051266323</v>
       </c>
       <c r="H23">
-        <v>3.029665472575729</v>
+        <v>3.179742227630726</v>
       </c>
       <c r="I23">
-        <v>0.05437312807071493</v>
+        <v>3.020152380238827</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0543912071840893</v>
       </c>
       <c r="K23">
-        <v>0.8348631943290314</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.8344663541419948</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.532747450948477</v>
+        <v>5.531648173653309</v>
       </c>
       <c r="C24">
-        <v>1.982046164374253</v>
+        <v>1.979905111223104</v>
       </c>
       <c r="D24">
-        <v>0.3988383312903352</v>
+        <v>0.3988130903679235</v>
       </c>
       <c r="E24">
-        <v>0.2379463938183832</v>
+        <v>0.2379835639553463</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.027145480835941</v>
+        <v>1.330338517274782</v>
       </c>
       <c r="H24">
-        <v>2.576875161951534</v>
+        <v>2.687019970162766</v>
       </c>
       <c r="I24">
-        <v>0.04519251012109216</v>
+        <v>2.568895722890559</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.0452092473920036</v>
       </c>
       <c r="K24">
-        <v>0.6928740762439745</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.6925761360615041</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.414201253599117</v>
+        <v>4.413598002405649</v>
       </c>
       <c r="C25">
-        <v>1.573706667740112</v>
+        <v>1.572087689553541</v>
       </c>
       <c r="D25">
-        <v>0.3189753460879814</v>
+        <v>0.3189678041094055</v>
       </c>
       <c r="E25">
-        <v>0.1901327035484215</v>
+        <v>0.1901696521514822</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.285944808604853</v>
+        <v>1.076429960713313</v>
       </c>
       <c r="H25">
-        <v>2.134008746958571</v>
+        <v>2.202554040071021</v>
       </c>
       <c r="I25">
-        <v>0.03608542248236368</v>
+        <v>2.12753972499938</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.0361001051165406</v>
       </c>
       <c r="K25">
-        <v>0.5506642839992608</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.5504503779033882</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.631393478818609</v>
+        <v>6.444594409280342</v>
       </c>
       <c r="C2">
-        <v>1.288609164615025</v>
+        <v>0.8801489061739574</v>
       </c>
       <c r="D2">
-        <v>0.2637941934174819</v>
+        <v>0.1912230142201707</v>
       </c>
       <c r="E2">
-        <v>0.1572745976813934</v>
+        <v>0.02582715559315574</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9036088641955615</v>
+        <v>0.0008720510220796151</v>
       </c>
       <c r="H2">
-        <v>1.874072926865566</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.829949713399145</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02986048897168914</v>
+        <v>0.01975288563581401</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.57036312677009</v>
       </c>
       <c r="L2">
-        <v>0.4521666368027155</v>
+        <v>0.5817324780606441</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>5.008882004198455</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.119153264942838</v>
+        <v>5.777870862248108</v>
       </c>
       <c r="C3">
-        <v>1.103767502327457</v>
+        <v>0.7673828342454385</v>
       </c>
       <c r="D3">
-        <v>0.2280186983439307</v>
+        <v>0.1801998194250842</v>
       </c>
       <c r="E3">
-        <v>0.1360130797607404</v>
+        <v>0.02587541734053378</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7928842349681133</v>
+        <v>0.0008868647040102909</v>
       </c>
       <c r="H3">
-        <v>1.664356359289371</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.640841043788541</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02584038769718333</v>
+        <v>0.0173334243395189</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.399003876157579</v>
       </c>
       <c r="L3">
-        <v>0.3883624927095539</v>
+        <v>0.5326860718510886</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>4.784387578267456</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.811366417854288</v>
+        <v>5.384654792963204</v>
       </c>
       <c r="C4">
-        <v>0.99300058561073</v>
+        <v>0.7005494328574002</v>
       </c>
       <c r="D4">
-        <v>0.2066764071705052</v>
+        <v>0.1738235336123495</v>
       </c>
       <c r="E4">
-        <v>0.123356787669902</v>
+        <v>0.02593069335244813</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7273998676684386</v>
+        <v>0.0008961255530859737</v>
       </c>
       <c r="H4">
-        <v>1.540675350651256</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.529705522754028</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02345252264549913</v>
+        <v>0.01588278902893947</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.29781827463411</v>
       </c>
       <c r="L4">
-        <v>0.3502551727943839</v>
+        <v>0.5039612379224252</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>4.651140093504353</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.687363989791663</v>
+        <v>5.22797539494502</v>
       </c>
       <c r="C5">
-        <v>0.9484364877223754</v>
+        <v>0.6738338800509496</v>
       </c>
       <c r="D5">
-        <v>0.1981136852907639</v>
+        <v>0.1713142336767817</v>
       </c>
       <c r="E5">
-        <v>0.118285083923201</v>
+        <v>0.02595942705812071</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7012582178090838</v>
+        <v>0.0008999462654914026</v>
       </c>
       <c r="H5">
-        <v>1.491387252325453</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.485509476424781</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02249679155135809</v>
+        <v>0.01529869070568957</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.257468423929566</v>
       </c>
       <c r="L5">
-        <v>0.334954181240434</v>
+        <v>0.4925655389935599</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>4.597852886927313</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.666852153177331</v>
+        <v>5.202160321689121</v>
       </c>
       <c r="C6">
-        <v>0.9410683318431268</v>
+        <v>0.6694268707175013</v>
       </c>
       <c r="D6">
-        <v>0.1966993621851429</v>
+        <v>0.1709026912944438</v>
       </c>
       <c r="E6">
-        <v>0.1174477275826966</v>
+        <v>0.02596456678467529</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6969479496418387</v>
+        <v>0.0009005836644992993</v>
       </c>
       <c r="H6">
-        <v>1.48326571789076</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.478232426551983</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02233906222100224</v>
+        <v>0.0152020806701394</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.250818278926403</v>
       </c>
       <c r="L6">
-        <v>0.332426136205342</v>
+        <v>0.4906909426737514</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>4.589061862359443</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.809688648532699</v>
+        <v>5.382527968507759</v>
       </c>
       <c r="C7">
-        <v>0.9923973908613846</v>
+        <v>0.7001871387745666</v>
       </c>
       <c r="D7">
-        <v>0.2065604108464214</v>
+        <v>0.1737893433039375</v>
       </c>
       <c r="E7">
-        <v>0.1232880590995329</v>
+        <v>0.02593105602314338</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7270452161445746</v>
+        <v>0.0008961768845519798</v>
       </c>
       <c r="H7">
-        <v>1.540006333755144</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.529105253075087</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02343956668562619</v>
+        <v>0.01587488527414038</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.29727068204717</v>
       </c>
       <c r="L7">
-        <v>0.3500479452539551</v>
+        <v>0.5038063455698705</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>4.650417521725274</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.45320361396449</v>
+        <v>6.211032028715863</v>
       </c>
       <c r="C8">
-        <v>1.224238504836705</v>
+        <v>0.8407130775149483</v>
       </c>
       <c r="D8">
-        <v>0.2513149127105407</v>
+        <v>0.1873347670700127</v>
       </c>
       <c r="E8">
-        <v>0.1498517708941449</v>
+        <v>0.02583831962872374</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8648575001173953</v>
+        <v>0.0008771278936026074</v>
       </c>
       <c r="H8">
-        <v>1.800600997527326</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.763610153392747</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02845579600707993</v>
+        <v>0.01891028967244424</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.510359070786691</v>
       </c>
       <c r="L8">
-        <v>0.4299191101139854</v>
+        <v>0.5645073722962479</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>4.930431590450269</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.782674770146741</v>
+        <v>7.990534539421844</v>
       </c>
       <c r="C9">
-        <v>1.706365956770924</v>
+        <v>1.139896245820978</v>
       </c>
       <c r="D9">
-        <v>0.3452052847972169</v>
+        <v>0.2175089224212599</v>
       </c>
       <c r="E9">
-        <v>0.2058549431165844</v>
+        <v>0.02587267615986644</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.159398529168868</v>
+        <v>0.0008408044510429448</v>
       </c>
       <c r="H9">
-        <v>2.360648850044242</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.27127619584094</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03908332134896675</v>
+        <v>0.0252322473698996</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.967042012058585</v>
       </c>
       <c r="L9">
-        <v>0.5971604020075745</v>
+        <v>0.6966663426339323</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>5.523489291566648</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.824141901975793</v>
+        <v>9.4372225586593</v>
       </c>
       <c r="C10">
-        <v>2.087115007489331</v>
+        <v>1.381762825815201</v>
       </c>
       <c r="D10">
-        <v>0.4198725139283397</v>
+        <v>0.2427231673170382</v>
       </c>
       <c r="E10">
-        <v>0.2506340101611073</v>
+        <v>0.02605127336871593</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.3979813015346</v>
+        <v>0.0008142783595794087</v>
       </c>
       <c r="H10">
-        <v>2.816377068278314</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.687155843450327</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0476267893197786</v>
+        <v>0.03025954779472784</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.337783168005146</v>
       </c>
       <c r="L10">
-        <v>0.7300593723640958</v>
+        <v>0.8053020907318285</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>5.998572434988262</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.318634897749007</v>
+        <v>10.13857821001682</v>
       </c>
       <c r="C11">
-        <v>2.268865420964289</v>
+        <v>1.498808587472524</v>
       </c>
       <c r="D11">
-        <v>0.4556251245759313</v>
+        <v>0.2550978821241756</v>
       </c>
       <c r="E11">
-        <v>0.2721473651257398</v>
+        <v>0.02617205217470442</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.513415816060927</v>
+        <v>0.0008021114847888014</v>
       </c>
       <c r="H11">
-        <v>3.037365499901682</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.889540504874347</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05174503291929788</v>
+        <v>0.03267567310216535</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.517430844596305</v>
       </c>
       <c r="L11">
-        <v>0.7937036520429643</v>
+        <v>0.8582512215548377</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>6.226843971801941</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.509565973772396</v>
+        <v>10.41177722203247</v>
       </c>
       <c r="C12">
-        <v>2.339211865975074</v>
+        <v>1.544380425982069</v>
       </c>
       <c r="D12">
-        <v>0.4694782599834468</v>
+        <v>0.259939964603646</v>
       </c>
       <c r="E12">
-        <v>0.2804954838202818</v>
+        <v>0.02622414225732594</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.55833902556904</v>
+        <v>0.0007974754471008589</v>
       </c>
       <c r="H12">
-        <v>3.123440862182719</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.968483413281476</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0533454290579769</v>
+        <v>0.03361417390633648</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.587399378888549</v>
       </c>
       <c r="L12">
-        <v>0.8183687772717292</v>
+        <v>0.8789192472640366</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>6.315415659618452</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.468269279215065</v>
+        <v>10.35257471557293</v>
       </c>
       <c r="C13">
-        <v>2.323988477508294</v>
+        <v>1.534505717041839</v>
       </c>
       <c r="D13">
-        <v>0.4664797073366742</v>
+        <v>0.258889716428115</v>
       </c>
       <c r="E13">
-        <v>0.2786879289844819</v>
+        <v>0.02621262879789388</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.548606184478473</v>
+        <v>0.0007984754418625083</v>
       </c>
       <c r="H13">
-        <v>3.104788856526255</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.951371757238604</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05299879721243173</v>
+        <v>0.03341091005124852</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.572237494991214</v>
       </c>
       <c r="L13">
-        <v>0.8130296615055386</v>
+        <v>0.8744385342621399</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>6.296238377171449</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.334264685812457</v>
+        <v>10.16089278176673</v>
       </c>
       <c r="C14">
-        <v>2.274620467160503</v>
+        <v>1.502531196409791</v>
       </c>
       <c r="D14">
-        <v>0.4567581559420546</v>
+        <v>0.2554929454877595</v>
       </c>
       <c r="E14">
-        <v>0.2728298909096907</v>
+        <v>0.02617620592964531</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.517085995685505</v>
+        <v>0.0008017307447447664</v>
       </c>
       <c r="H14">
-        <v>3.044396274375146</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.895986368951341</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05187582933498192</v>
+        <v>0.03275237884877313</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.523145962545499</v>
       </c>
       <c r="L14">
-        <v>0.7957208656342587</v>
+        <v>0.8599384992558896</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>6.234085620608766</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.252685119950684</v>
+        <v>10.04452006413032</v>
       </c>
       <c r="C15">
-        <v>2.244589048844716</v>
+        <v>1.483116643299127</v>
       </c>
       <c r="D15">
-        <v>0.4508462843051007</v>
+        <v>0.253433519627535</v>
       </c>
       <c r="E15">
-        <v>0.2692691480908636</v>
+        <v>0.02615474580766186</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.497943898699305</v>
+        <v>0.0008037204911221193</v>
       </c>
       <c r="H15">
-        <v>3.007729725395535</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.862374820473534</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05119355919404533</v>
+        <v>0.03235224738666176</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.493340688576723</v>
       </c>
       <c r="L15">
-        <v>0.7851957674249093</v>
+        <v>0.8511408981499358</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>6.196305515656434</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.79229899143354</v>
+        <v>9.392369469233358</v>
       </c>
       <c r="C16">
-        <v>2.075432777082881</v>
+        <v>1.374274109960766</v>
       </c>
       <c r="D16">
-        <v>0.417576591640568</v>
+        <v>0.2419347425983744</v>
       </c>
       <c r="E16">
-        <v>0.2492540619014108</v>
+        <v>0.02604422950670227</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.390593904926874</v>
+        <v>0.0008150703288226529</v>
       </c>
       <c r="H16">
-        <v>2.802244518149109</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.674227968832668</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04736292817336896</v>
+        <v>0.03010464784671285</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.326292855390037</v>
       </c>
       <c r="L16">
-        <v>0.7259727788776402</v>
+        <v>0.8019215942495919</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>5.983929714869021</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.515627318750376</v>
+        <v>9.004268454595262</v>
       </c>
       <c r="C17">
-        <v>1.974039170861545</v>
+        <v>1.309454501835148</v>
       </c>
       <c r="D17">
-        <v>0.3976615496116267</v>
+        <v>0.2351290311978858</v>
       </c>
       <c r="E17">
-        <v>0.237292296669871</v>
+        <v>0.02598698746503469</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.326647513425684</v>
+        <v>0.0008219982482028892</v>
       </c>
       <c r="H17">
-        <v>2.679964621028432</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.562450252375214</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04507723233983185</v>
+        <v>0.02876210013737079</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.226861256720696</v>
       </c>
       <c r="L17">
-        <v>0.69052658836479</v>
+        <v>0.7727018537280514</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>5.857003576672469</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.358394577151046</v>
+        <v>8.785014602873957</v>
       </c>
       <c r="C18">
-        <v>1.916503919076547</v>
+        <v>1.272815528772014</v>
       </c>
       <c r="D18">
-        <v>0.3863710056080834</v>
+        <v>0.2312978644647075</v>
       </c>
       <c r="E18">
-        <v>0.2305171842203251</v>
+        <v>0.02595773680380287</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.290501507979855</v>
+        <v>0.0008259746103007615</v>
       </c>
       <c r="H18">
-        <v>2.610889659081408</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.499372381274583</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04378384080321318</v>
+        <v>0.02800170311636307</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.170680183171584</v>
       </c>
       <c r="L18">
-        <v>0.670431445374092</v>
+        <v>0.7562198794722264</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>5.785115803222453</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.305465891397773</v>
+        <v>8.711423702739353</v>
       </c>
       <c r="C19">
-        <v>1.897150125141025</v>
+        <v>1.260514296546262</v>
       </c>
       <c r="D19">
-        <v>0.3825748320002305</v>
+        <v>0.2300143041592122</v>
       </c>
       <c r="E19">
-        <v>0.2282402691396186</v>
+        <v>0.02594844593577417</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.278366091221415</v>
+        <v>0.0008273198821378789</v>
       </c>
       <c r="H19">
-        <v>2.587706415436571</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.478212695997101</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04334936983519633</v>
+        <v>0.02774613903531176</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.151821948808333</v>
       </c>
       <c r="L19">
-        <v>0.6636749442879903</v>
+        <v>0.750692139287068</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>5.760957321727204</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.544878099428729</v>
+        <v>9.045162340305637</v>
       </c>
       <c r="C20">
-        <v>1.984749661648436</v>
+        <v>1.316286492159975</v>
       </c>
       <c r="D20">
-        <v>0.3997641804720615</v>
+        <v>0.2358447199635521</v>
       </c>
       <c r="E20">
-        <v>0.2385545377388283</v>
+        <v>0.02599269641897628</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.333387633479873</v>
+        <v>0.0008212617216664822</v>
       </c>
       <c r="H20">
-        <v>2.692848605394659</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.574220887275246</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04531829628030515</v>
+        <v>0.02890376284822338</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.237339114998264</v>
       </c>
       <c r="L20">
-        <v>0.6942689182750996</v>
+        <v>0.7757780496706062</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>5.87039699336998</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.373518980778613</v>
+        <v>10.21697513162974</v>
       </c>
       <c r="C21">
-        <v>2.289077104127841</v>
+        <v>1.511886789285995</v>
       </c>
       <c r="D21">
-        <v>0.4596045588781408</v>
+        <v>0.256486187419128</v>
       </c>
       <c r="E21">
-        <v>0.2745447351691581</v>
+        <v>0.02618672566168456</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.526309410961716</v>
+        <v>0.000800775493211013</v>
       </c>
       <c r="H21">
-        <v>3.062066282814129</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.912188194912915</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05220449340435351</v>
+        <v>0.03294511994883464</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.537509406912051</v>
       </c>
       <c r="L21">
-        <v>0.8007886010555865</v>
+        <v>0.8641797534178295</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>6.252280092671128</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.936958004991766</v>
+        <v>11.02808809572889</v>
       </c>
       <c r="C22">
-        <v>2.497026952228794</v>
+        <v>1.647160431180566</v>
       </c>
       <c r="D22">
-        <v>0.5005825081879607</v>
+        <v>0.270902927320904</v>
       </c>
       <c r="E22">
-        <v>0.2992642275797124</v>
+        <v>0.0263510025220528</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.659589259285241</v>
+        <v>0.0007872099568447448</v>
       </c>
       <c r="H22">
-        <v>3.317581192917856</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.146756237558066</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05694826298772071</v>
+        <v>0.03572702811975503</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.745228241640334</v>
       </c>
       <c r="L22">
-        <v>0.873762360929021</v>
+        <v>0.9256249576326638</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>6.514525761831408</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.633966869544111</v>
+        <v>10.59048919518455</v>
       </c>
       <c r="C23">
-        <v>2.385097371158906</v>
+        <v>1.57418660781093</v>
       </c>
       <c r="D23">
-        <v>0.4785184145423216</v>
+        <v>0.263113428697892</v>
       </c>
       <c r="E23">
-        <v>0.2859469053032271</v>
+        <v>0.02625963232726214</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.587712051266323</v>
+        <v>0.0007944719599587757</v>
       </c>
       <c r="H23">
-        <v>3.179742227630726</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.020152380238827</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0543912071840893</v>
+        <v>0.03422741186643208</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.633166778166711</v>
       </c>
       <c r="L23">
-        <v>0.8344663541419948</v>
+        <v>0.8924512988038202</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>6.373250905834595</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.531648173653309</v>
+        <v>9.02666225910184</v>
       </c>
       <c r="C24">
-        <v>1.979905111223104</v>
+        <v>1.313195814666472</v>
       </c>
       <c r="D24">
-        <v>0.3988130903679235</v>
+        <v>0.2355209050105174</v>
       </c>
       <c r="E24">
-        <v>0.2379835639553463</v>
+        <v>0.02599010405375068</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.330338517274782</v>
+        <v>0.0008215947249526896</v>
       </c>
       <c r="H24">
-        <v>2.687019970162766</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.568895722890559</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0452092473920036</v>
+        <v>0.02883968182734264</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.232599037873825</v>
       </c>
       <c r="L24">
-        <v>0.6925761360615041</v>
+        <v>0.7743863225140046</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>5.864338481704891</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.413598002405649</v>
+        <v>7.48841500109063</v>
       </c>
       <c r="C25">
-        <v>1.572087689553541</v>
+        <v>1.055726006711041</v>
       </c>
       <c r="D25">
-        <v>0.3189678041094055</v>
+        <v>0.2088814316142162</v>
       </c>
       <c r="E25">
-        <v>0.1901696521514822</v>
+        <v>0.02583824863459228</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.076429960713313</v>
+        <v>0.0008505637927490356</v>
       </c>
       <c r="H25">
-        <v>2.202554040071021</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.12753972499938</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0361001051165406</v>
+        <v>0.02346799210530648</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.838276190362578</v>
       </c>
       <c r="L25">
-        <v>0.5504503779033882</v>
+        <v>0.6591824702963862</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>5.357181554513801</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.444594409280342</v>
+        <v>2.484874521302004</v>
       </c>
       <c r="C2">
-        <v>0.8801489061739574</v>
+        <v>0.5849137732542147</v>
       </c>
       <c r="D2">
-        <v>0.1912230142201707</v>
+        <v>0.3773309716545583</v>
       </c>
       <c r="E2">
-        <v>0.02582715559315574</v>
+        <v>0.118935265473251</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008720510220796151</v>
+        <v>0.3857340300604903</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3068744555224185</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01975288563581401</v>
+        <v>0.04288811476341436</v>
       </c>
       <c r="K2">
-        <v>1.57036312677009</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5817324780606441</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7582673178692971</v>
       </c>
       <c r="N2">
-        <v>5.008882004198455</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.409293850937019</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.777870862248108</v>
+        <v>2.161152700207424</v>
       </c>
       <c r="C3">
-        <v>0.7673828342454385</v>
+        <v>0.5142333273091424</v>
       </c>
       <c r="D3">
-        <v>0.1801998194250842</v>
+        <v>0.3493446154817264</v>
       </c>
       <c r="E3">
-        <v>0.02587541734053378</v>
+        <v>0.1129014822960244</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008868647040102909</v>
+        <v>0.3683807917231476</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3065635759797232</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0173334243395189</v>
+        <v>0.04287913340843374</v>
       </c>
       <c r="K3">
-        <v>1.399003876157579</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5326860718510886</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.660589231531155</v>
       </c>
       <c r="N3">
-        <v>4.784387578267456</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.371384015922331</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.384654792963204</v>
+        <v>1.9626925788275</v>
       </c>
       <c r="C4">
-        <v>0.7005494328574002</v>
+        <v>0.4708493096788686</v>
       </c>
       <c r="D4">
-        <v>0.1738235336123495</v>
+        <v>0.3327068465899146</v>
       </c>
       <c r="E4">
-        <v>0.02593069335244813</v>
+        <v>0.1094059604328699</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008961255530859737</v>
+        <v>0.3590824435429809</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3071825753765864</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01588278902893947</v>
+        <v>0.04297108980176034</v>
       </c>
       <c r="K4">
-        <v>1.29781827463411</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5039612379224252</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6008762940695007</v>
       </c>
       <c r="N4">
-        <v>4.651140093504353</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.352666730862225</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.22797539494502</v>
+        <v>1.881864631936679</v>
       </c>
       <c r="C5">
-        <v>0.6738338800509496</v>
+        <v>0.4531678042809801</v>
       </c>
       <c r="D5">
-        <v>0.1713142336767817</v>
+        <v>0.3260557634536099</v>
       </c>
       <c r="E5">
-        <v>0.02595942705812071</v>
+        <v>0.108031315655559</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008999462654914026</v>
+        <v>0.3556138966096754</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3076292541823449</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01529869070568957</v>
+        <v>0.04303201084296759</v>
       </c>
       <c r="K5">
-        <v>1.257468423929566</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4925655389935599</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5765971614113496</v>
       </c>
       <c r="N5">
-        <v>4.597852886927313</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.346122973791267</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.202160321689121</v>
+        <v>1.86844513828899</v>
       </c>
       <c r="C6">
-        <v>0.6694268707175013</v>
+        <v>0.4502315144042086</v>
       </c>
       <c r="D6">
-        <v>0.1709026912944438</v>
+        <v>0.3249589086522207</v>
       </c>
       <c r="E6">
-        <v>0.02596456678467529</v>
+        <v>0.1078059860522487</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0009005836644992993</v>
+        <v>0.3550567311713095</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3077149077376831</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0152020806701394</v>
+        <v>0.04304351298349829</v>
       </c>
       <c r="K6">
-        <v>1.250818278926403</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4906909426737514</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5725685929215416</v>
       </c>
       <c r="N6">
-        <v>4.589061862359443</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.345100065622177</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.382527968507759</v>
+        <v>1.961602357260119</v>
       </c>
       <c r="C7">
-        <v>0.7001871387745666</v>
+        <v>0.4706108667135709</v>
       </c>
       <c r="D7">
-        <v>0.1737893433039375</v>
+        <v>0.3326166363693233</v>
       </c>
       <c r="E7">
-        <v>0.02593105602314338</v>
+        <v>0.1093872234186541</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008961768845519798</v>
+        <v>0.3590343937237108</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.3071878240230816</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01587488527414038</v>
+        <v>0.04297181782496651</v>
       </c>
       <c r="K7">
-        <v>1.29727068204717</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5038063455698705</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6005486516538738</v>
       </c>
       <c r="N7">
-        <v>4.650417521725274</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.352574172272</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.211032028715863</v>
+        <v>2.373172315810677</v>
       </c>
       <c r="C8">
-        <v>0.8407130775149483</v>
+        <v>0.5605366518791186</v>
       </c>
       <c r="D8">
-        <v>0.1873347670700127</v>
+        <v>0.3675627859056902</v>
       </c>
       <c r="E8">
-        <v>0.02583831962872374</v>
+        <v>0.1168096484155754</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008771278936026074</v>
+        <v>0.3794563683080838</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.3065934687048184</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01891028967244424</v>
+        <v>0.04286413048242466</v>
       </c>
       <c r="K8">
-        <v>1.510359070786691</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5645073722962479</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7245264236387783</v>
       </c>
       <c r="N8">
-        <v>4.930431590450269</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.395237332171007</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.990534539421844</v>
+        <v>3.184229795708006</v>
       </c>
       <c r="C9">
-        <v>1.139896245820978</v>
+        <v>0.7372800610906438</v>
       </c>
       <c r="D9">
-        <v>0.2175089224212599</v>
+        <v>0.440827768164155</v>
       </c>
       <c r="E9">
-        <v>0.02587267615986644</v>
+        <v>0.1331606704878254</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008408044510429448</v>
+        <v>0.4312525169443404</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.312296032387934</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0252322473698996</v>
+        <v>0.04347733334712345</v>
       </c>
       <c r="K9">
-        <v>1.967042012058585</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6966663426339323</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.9702899455688652</v>
       </c>
       <c r="N9">
-        <v>5.523489291566648</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.518091192703622</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.4372225586593</v>
+        <v>3.784899622177591</v>
       </c>
       <c r="C10">
-        <v>1.381762825815201</v>
+        <v>0.8678235680764885</v>
       </c>
       <c r="D10">
-        <v>0.2427231673170382</v>
+        <v>0.4981473177078328</v>
       </c>
       <c r="E10">
-        <v>0.02605127336871593</v>
+        <v>0.1464707870262849</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008142783595794087</v>
+        <v>0.477934070993328</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3213300171559297</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03025954779472784</v>
+        <v>0.044506362666759</v>
       </c>
       <c r="K10">
-        <v>2.337783168005146</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8053020907318285</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.153328181679697</v>
       </c>
       <c r="N10">
-        <v>5.998572434988262</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.636726761157632</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.13857821001682</v>
+        <v>4.05977714726464</v>
       </c>
       <c r="C11">
-        <v>1.498808587472524</v>
+        <v>0.9274710227246317</v>
       </c>
       <c r="D11">
-        <v>0.2550978821241756</v>
+        <v>0.5251274982383336</v>
       </c>
       <c r="E11">
-        <v>0.02617205217470442</v>
+        <v>0.1528563318727869</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008021114847888014</v>
+        <v>0.5013967429078861</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3266501690508647</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03267567310216535</v>
+        <v>0.04511845672967141</v>
       </c>
       <c r="K11">
-        <v>2.517430844596305</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8582512215548377</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.237345093751287</v>
       </c>
       <c r="N11">
-        <v>6.226843971801941</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.697938456487577</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.41177722203247</v>
+        <v>4.164151998844659</v>
       </c>
       <c r="C12">
-        <v>1.544380425982069</v>
+        <v>0.9501055249318995</v>
       </c>
       <c r="D12">
-        <v>0.259939964603646</v>
+        <v>0.5354874908575482</v>
       </c>
       <c r="E12">
-        <v>0.02622414225732594</v>
+        <v>0.1553263360120098</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007974754471008589</v>
+        <v>0.5106336991606213</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3288532585877704</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03361417390633648</v>
+        <v>0.04537261612407306</v>
       </c>
       <c r="K12">
-        <v>2.587399378888549</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8789192472640366</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.26928705510494</v>
       </c>
       <c r="N12">
-        <v>6.315415659618452</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.722257448615068</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.35257471557293</v>
+        <v>4.141659497023397</v>
       </c>
       <c r="C13">
-        <v>1.534505717041839</v>
+        <v>0.9452285147198154</v>
       </c>
       <c r="D13">
-        <v>0.258889716428115</v>
+        <v>0.5332496944338914</v>
       </c>
       <c r="E13">
-        <v>0.02621262879789388</v>
+        <v>0.1547919929215347</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007984754418625083</v>
+        <v>0.508628157336986</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3283701601403948</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03341091005124852</v>
+        <v>0.04531685527716078</v>
       </c>
       <c r="K13">
-        <v>2.572237494991214</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8744385342621399</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.262401841728803</v>
       </c>
       <c r="N13">
-        <v>6.296238377171449</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.716967598268582</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.16089278176673</v>
+        <v>4.068358119578136</v>
       </c>
       <c r="C14">
-        <v>1.502531196409791</v>
+        <v>0.929332171015858</v>
       </c>
       <c r="D14">
-        <v>0.2554929454877595</v>
+        <v>0.5259768731577594</v>
       </c>
       <c r="E14">
-        <v>0.02617620592964531</v>
+        <v>0.1530584733378255</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008017307447447664</v>
+        <v>0.5021494231766468</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3268275548549582</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03275237884877313</v>
+        <v>0.04513890814747867</v>
       </c>
       <c r="K14">
-        <v>2.523145962545499</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8599384992558896</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.239970329945166</v>
       </c>
       <c r="N14">
-        <v>6.234085620608766</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.699915769684395</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.04452006413032</v>
+        <v>4.023497553116556</v>
       </c>
       <c r="C15">
-        <v>1.483116643299127</v>
+        <v>0.9196016600829466</v>
       </c>
       <c r="D15">
-        <v>0.253433519627535</v>
+        <v>0.5215411110102366</v>
       </c>
       <c r="E15">
-        <v>0.02615474580766186</v>
+        <v>0.1520035423651578</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008037204911221193</v>
+        <v>0.4982278632183892</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3259076551322693</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03235224738666176</v>
+        <v>0.04503287582994631</v>
       </c>
       <c r="K15">
-        <v>2.493340688576723</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8511408981499358</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.226247440335413</v>
       </c>
       <c r="N15">
-        <v>6.196305515656434</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.689622460805168</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.392369469233358</v>
+        <v>3.766972730881434</v>
       </c>
       <c r="C16">
-        <v>1.374274109960766</v>
+        <v>0.8639315471588702</v>
       </c>
       <c r="D16">
-        <v>0.2419347425983744</v>
+        <v>0.4964034038118257</v>
       </c>
       <c r="E16">
-        <v>0.02604422950670227</v>
+        <v>0.1460604978984712</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008150703288226529</v>
+        <v>0.4764482130504035</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3210078956812907</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03010464784671285</v>
+        <v>0.04446939769216129</v>
       </c>
       <c r="K16">
-        <v>2.326292855390037</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8019215942495919</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.147854151615704</v>
       </c>
       <c r="N16">
-        <v>5.983929714869021</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.632880378920134</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.004268454595262</v>
+        <v>3.610054974743946</v>
       </c>
       <c r="C17">
-        <v>1.309454501835148</v>
+        <v>0.8298535152355555</v>
       </c>
       <c r="D17">
-        <v>0.2351290311978858</v>
+        <v>0.4812230218758202</v>
       </c>
       <c r="E17">
-        <v>0.02598698746503469</v>
+        <v>0.1425023429029331</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008219982482028892</v>
+        <v>0.4636794030229936</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3183219797246721</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02876210013737079</v>
+        <v>0.04416174424482122</v>
       </c>
       <c r="K17">
-        <v>2.226861256720696</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7727018537280514</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.099967637622221</v>
       </c>
       <c r="N17">
-        <v>5.857003576672469</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.599993408481623</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.785014602873957</v>
+        <v>3.519950176522684</v>
       </c>
       <c r="C18">
-        <v>1.272815528772014</v>
+        <v>0.8102768251768566</v>
       </c>
       <c r="D18">
-        <v>0.2312978644647075</v>
+        <v>0.4725760338484406</v>
       </c>
       <c r="E18">
-        <v>0.02595773680380287</v>
+        <v>0.1404866315096136</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008259746103007615</v>
+        <v>0.4565426808792239</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3168901269554851</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02800170311636307</v>
+        <v>0.04399823490956223</v>
       </c>
       <c r="K18">
-        <v>2.170680183171584</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7562198794722264</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.072494159413736</v>
       </c>
       <c r="N18">
-        <v>5.785115803222453</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.581753209747916</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.711423702739353</v>
+        <v>3.489466563006488</v>
       </c>
       <c r="C19">
-        <v>1.260514296546262</v>
+        <v>0.8036523548817058</v>
       </c>
       <c r="D19">
-        <v>0.2300143041592122</v>
+        <v>0.4696624224842196</v>
       </c>
       <c r="E19">
-        <v>0.02594844593577417</v>
+        <v>0.1398093161179013</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008273198821378789</v>
+        <v>0.4541610267817617</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3164243169113092</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02774613903531176</v>
+        <v>0.04394513398370137</v>
       </c>
       <c r="K19">
-        <v>2.151821948808333</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.750692139287068</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.063203524507017</v>
       </c>
       <c r="N19">
-        <v>5.760957321727204</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.575690558831951</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.045162340305637</v>
+        <v>3.626743247321315</v>
       </c>
       <c r="C20">
-        <v>1.316286492159975</v>
+        <v>0.8334786199226585</v>
       </c>
       <c r="D20">
-        <v>0.2358447199635521</v>
+        <v>0.4828301769049403</v>
       </c>
       <c r="E20">
-        <v>0.02599269641897628</v>
+        <v>0.1428778915850017</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008212617216664822</v>
+        <v>0.4650169599623268</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3185961028883639</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02890376284822338</v>
+        <v>0.04419309134461358</v>
       </c>
       <c r="K20">
-        <v>2.237339114998264</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7757780496706062</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.105057908941447</v>
       </c>
       <c r="N20">
-        <v>5.87039699336998</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.603423685631753</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.21697513162974</v>
+        <v>4.089880361659311</v>
       </c>
       <c r="C21">
-        <v>1.511886789285995</v>
+        <v>0.933999948269701</v>
       </c>
       <c r="D21">
-        <v>0.256486187419128</v>
+        <v>0.5281090821516727</v>
       </c>
       <c r="E21">
-        <v>0.02618672566168456</v>
+        <v>0.153566203815366</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.000800775493211013</v>
+        <v>0.5040425599309373</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.32727542005928</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03294511994883464</v>
+        <v>0.04519055436475128</v>
       </c>
       <c r="K21">
-        <v>2.537509406912051</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8641797534178295</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.246555418429054</v>
       </c>
       <c r="N21">
-        <v>6.252280092671128</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.704892561635205</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.02808809572889</v>
+        <v>4.394253220877943</v>
       </c>
       <c r="C22">
-        <v>1.647160431180566</v>
+        <v>0.9999772403847942</v>
       </c>
       <c r="D22">
-        <v>0.270902927320904</v>
+        <v>0.5585428642505406</v>
       </c>
       <c r="E22">
-        <v>0.0263510025220528</v>
+        <v>0.1608566580462103</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007872099568447448</v>
+        <v>0.5316173790749872</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3340539105688549</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03572702811975503</v>
+        <v>0.04597373522144466</v>
       </c>
       <c r="K22">
-        <v>2.745228241640334</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9256249576326638</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.339779749848731</v>
       </c>
       <c r="N22">
-        <v>6.514525761831408</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.777901201525026</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.59048919518455</v>
+        <v>4.231631650291661</v>
       </c>
       <c r="C23">
-        <v>1.57418660781093</v>
+        <v>0.9647348432108629</v>
       </c>
       <c r="D23">
-        <v>0.263113428697892</v>
+        <v>0.5422182143715588</v>
       </c>
       <c r="E23">
-        <v>0.02625963232726214</v>
+        <v>0.1569361531344633</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007944719599587757</v>
+        <v>0.5166996009794929</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.3303298315915271</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03422741186643208</v>
+        <v>0.04554313672792176</v>
       </c>
       <c r="K23">
-        <v>2.633166778166711</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8924512988038202</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.289949254461973</v>
       </c>
       <c r="N23">
-        <v>6.373250905834595</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.738288284941916</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.02666225910184</v>
+        <v>3.619198142565097</v>
       </c>
       <c r="C24">
-        <v>1.313195814666472</v>
+        <v>0.8318396633846703</v>
       </c>
       <c r="D24">
-        <v>0.2355209050105174</v>
+        <v>0.4821033326101656</v>
       </c>
       <c r="E24">
-        <v>0.02599010405375068</v>
+        <v>0.1427080131608953</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008215947249526896</v>
+        <v>0.4644116166996071</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3184718230403831</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02883968182734264</v>
+        <v>0.04417887781708529</v>
       </c>
       <c r="K24">
-        <v>2.232599037873825</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7743863225140046</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.102756420748953</v>
       </c>
       <c r="N24">
-        <v>5.864338481704891</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.601870787204376</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.48841500109063</v>
+        <v>2.964159318296993</v>
       </c>
       <c r="C25">
-        <v>1.055726006711041</v>
+        <v>0.6893796874433633</v>
       </c>
       <c r="D25">
-        <v>0.2088814316142162</v>
+        <v>0.4204408435646627</v>
       </c>
       <c r="E25">
-        <v>0.02583824863459228</v>
+        <v>0.1285250382341445</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008505637927490356</v>
+        <v>0.4158376430946475</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3099530701098985</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02346799210530648</v>
+        <v>0.04321568736137493</v>
       </c>
       <c r="K25">
-        <v>1.838276190362578</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6591824702963862</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9034362050409541</v>
       </c>
       <c r="N25">
-        <v>5.357181554513801</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.480216922011294</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.484874521302004</v>
+        <v>0.9211691253470349</v>
       </c>
       <c r="C2">
-        <v>0.5849137732542147</v>
+        <v>0.1834521536900695</v>
       </c>
       <c r="D2">
-        <v>0.3773309716545583</v>
+        <v>0.6008320174162094</v>
       </c>
       <c r="E2">
-        <v>0.118935265473251</v>
+        <v>0.2299847524138805</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3857340300604903</v>
+        <v>0.649463987586941</v>
       </c>
       <c r="H2">
-        <v>0.3068744555224185</v>
+        <v>0.762768681843454</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04288811476341436</v>
+        <v>0.1102173371868922</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7582673178692971</v>
+        <v>0.4223793129907349</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.409293850937019</v>
+        <v>2.815072590898609</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.161152700207424</v>
+        <v>0.8204206955624045</v>
       </c>
       <c r="C3">
-        <v>0.5142333273091424</v>
+        <v>0.1601982326561142</v>
       </c>
       <c r="D3">
-        <v>0.3493446154817264</v>
+        <v>0.5976860526324259</v>
       </c>
       <c r="E3">
-        <v>0.1129014822960244</v>
+        <v>0.2301952801200073</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3683807917231476</v>
+        <v>0.6535320393179305</v>
       </c>
       <c r="H3">
-        <v>0.3065635759797232</v>
+        <v>0.76977997774312</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04287913340843374</v>
+        <v>0.1111422963292164</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.660589231531155</v>
+        <v>0.3942834481389568</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.371384015922331</v>
+        <v>2.838037381637051</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.9626925788275</v>
+        <v>0.7584867392029082</v>
       </c>
       <c r="C4">
-        <v>0.4708493096788686</v>
+        <v>0.1458617823548138</v>
       </c>
       <c r="D4">
-        <v>0.3327068465899146</v>
+        <v>0.5960564809138162</v>
       </c>
       <c r="E4">
-        <v>0.1094059604328699</v>
+        <v>0.2304423709180412</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3590824435429809</v>
+        <v>0.6566080749850585</v>
       </c>
       <c r="H4">
-        <v>0.3071825753765864</v>
+        <v>0.7745265418449421</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04297108980176034</v>
+        <v>0.1117662674607942</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6008762940695007</v>
+        <v>0.3771157369693086</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.352666730862225</v>
+        <v>2.854276389589984</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.881864631936679</v>
+        <v>0.7332310023204798</v>
       </c>
       <c r="C5">
-        <v>0.4531678042809801</v>
+        <v>0.1400052480499028</v>
       </c>
       <c r="D5">
-        <v>0.3260557634536099</v>
+        <v>0.595468440687128</v>
       </c>
       <c r="E5">
-        <v>0.108031315655559</v>
+        <v>0.2305726989930932</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3556138966096754</v>
+        <v>0.6580066410284218</v>
       </c>
       <c r="H5">
-        <v>0.3076292541823449</v>
+        <v>0.7765717961737479</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04303201084296759</v>
+        <v>0.1120346285358416</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5765971614113496</v>
+        <v>0.3701410795864959</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.346122973791267</v>
+        <v>2.861430817576675</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.86844513828899</v>
+        <v>0.7290363142411707</v>
       </c>
       <c r="C6">
-        <v>0.4502315144042086</v>
+        <v>0.1390319217937304</v>
       </c>
       <c r="D6">
-        <v>0.3249589086522207</v>
+        <v>0.5953753906817099</v>
       </c>
       <c r="E6">
-        <v>0.1078059860522487</v>
+        <v>0.2305961300953321</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3550567311713095</v>
+        <v>0.6582476227742404</v>
       </c>
       <c r="H6">
-        <v>0.3077149077376831</v>
+        <v>0.776918111126605</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04304351298349829</v>
+        <v>0.1120800404229403</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5725685929215416</v>
+        <v>0.3689842424496774</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.345100065622177</v>
+        <v>2.862651207389561</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.961602357260119</v>
+        <v>0.7581461989780109</v>
       </c>
       <c r="C7">
-        <v>0.4706108667135709</v>
+        <v>0.1457828565309853</v>
       </c>
       <c r="D7">
-        <v>0.3326166363693233</v>
+        <v>0.596048242491733</v>
       </c>
       <c r="E7">
-        <v>0.1093872234186541</v>
+        <v>0.2304440085595161</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3590343937237108</v>
+        <v>0.6566263496678673</v>
       </c>
       <c r="H7">
-        <v>0.3071878240230816</v>
+        <v>0.7745536755347615</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04297181782496651</v>
+        <v>0.1117698296373106</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6005486516538738</v>
+        <v>0.3770215874431813</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.352574172272</v>
+        <v>2.854370703956334</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.373172315810677</v>
+        <v>0.8864472714478779</v>
       </c>
       <c r="C8">
-        <v>0.5605366518791186</v>
+        <v>0.1754465543072854</v>
       </c>
       <c r="D8">
-        <v>0.3675627859056902</v>
+        <v>0.5996846331648413</v>
       </c>
       <c r="E8">
-        <v>0.1168096484155754</v>
+        <v>0.2300328919794694</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3794563683080838</v>
+        <v>0.6507464304273611</v>
       </c>
       <c r="H8">
-        <v>0.3065934687048184</v>
+        <v>0.7650944905681456</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04286413048242466</v>
+        <v>0.110524628713037</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7245264236387783</v>
+        <v>0.412674799500671</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.395237332171007</v>
+        <v>2.822546484051117</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.184229795708006</v>
+        <v>1.137406482943163</v>
       </c>
       <c r="C9">
-        <v>0.7372800610906438</v>
+        <v>0.2331392715973664</v>
       </c>
       <c r="D9">
-        <v>0.440827768164155</v>
+        <v>0.6092105083856723</v>
       </c>
       <c r="E9">
-        <v>0.1331606704878254</v>
+        <v>0.2301614935988177</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4312525169443404</v>
+        <v>0.6438201194639248</v>
       </c>
       <c r="H9">
-        <v>0.312296032387934</v>
+        <v>0.7500515237307752</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04347733334712345</v>
+        <v>0.1085276939229374</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9702899455688652</v>
+        <v>0.4832380893547708</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.518091192703622</v>
+        <v>2.777147571141455</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.784899622177591</v>
+        <v>1.321346367459455</v>
       </c>
       <c r="C10">
-        <v>0.8678235680764885</v>
+        <v>0.2752204067390664</v>
       </c>
       <c r="D10">
-        <v>0.4981473177078328</v>
+        <v>0.6176684292192647</v>
       </c>
       <c r="E10">
-        <v>0.1464707870262849</v>
+        <v>0.2308261254953479</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.477934070993328</v>
+        <v>0.6415613816203773</v>
       </c>
       <c r="H10">
-        <v>0.3213300171559297</v>
+        <v>0.7411409060671303</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.044506362666759</v>
+        <v>0.1073321190103798</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.153328181679697</v>
+        <v>0.5354634860852769</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.636726761157632</v>
+        <v>2.754219333576515</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.05977714726464</v>
+        <v>1.404920561335075</v>
       </c>
       <c r="C11">
-        <v>0.9274710227246317</v>
+        <v>0.294295077892059</v>
       </c>
       <c r="D11">
-        <v>0.5251274982383336</v>
+        <v>0.6218329816871631</v>
       </c>
       <c r="E11">
-        <v>0.1528563318727869</v>
+        <v>0.2312523737492143</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5013967429078861</v>
+        <v>0.6411533592697225</v>
       </c>
       <c r="H11">
-        <v>0.3266501690508647</v>
+        <v>0.7375530833143529</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04511845672967141</v>
+        <v>0.1068472709433621</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.237345093751287</v>
+        <v>0.5593030588673855</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.697938456487577</v>
+        <v>2.746065207111712</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.164151998844659</v>
+        <v>1.436552239962168</v>
       </c>
       <c r="C12">
-        <v>0.9501055249318995</v>
+        <v>0.301508029824106</v>
       </c>
       <c r="D12">
-        <v>0.5354874908575482</v>
+        <v>0.6234555373125374</v>
       </c>
       <c r="E12">
-        <v>0.1553263360120098</v>
+        <v>0.2314316004633525</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5106336991606213</v>
+        <v>0.6410883243661658</v>
       </c>
       <c r="H12">
-        <v>0.3288532585877704</v>
+        <v>0.7362615006559139</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04537261612407306</v>
+        <v>0.1066721662507391</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.26928705510494</v>
+        <v>0.5683419725318402</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.722257448615068</v>
+        <v>2.743305728816694</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.141659497023397</v>
+        <v>1.429740530300933</v>
       </c>
       <c r="C13">
-        <v>0.9452285147198154</v>
+        <v>0.2999550520403602</v>
       </c>
       <c r="D13">
-        <v>0.5332496944338914</v>
+        <v>0.6231040668336902</v>
       </c>
       <c r="E13">
-        <v>0.1547919929215347</v>
+        <v>0.2313922084458504</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.508628157336986</v>
+        <v>0.6410983451668102</v>
       </c>
       <c r="H13">
-        <v>0.3283701601403948</v>
+        <v>0.7365366827391711</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04531685527716078</v>
+        <v>0.1067095001395479</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.262401841728803</v>
+        <v>0.5663947807893521</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.716967598268582</v>
+        <v>2.743885413845135</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.068358119578136</v>
+        <v>1.407523249064354</v>
       </c>
       <c r="C14">
-        <v>0.929332171015858</v>
+        <v>0.294888698715738</v>
       </c>
       <c r="D14">
-        <v>0.5259768731577594</v>
+        <v>0.6219655581369921</v>
       </c>
       <c r="E14">
-        <v>0.1530584733378255</v>
+        <v>0.2312667617927602</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5021494231766468</v>
+        <v>0.6411462133674348</v>
       </c>
       <c r="H14">
-        <v>0.3268275548549582</v>
+        <v>0.7374454797963921</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04513890814747867</v>
+        <v>0.1068326946355711</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.239970329945166</v>
+        <v>0.5600464698636358</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.699915769684395</v>
+        <v>2.745831597469618</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.023497553116556</v>
+        <v>1.393912386736417</v>
       </c>
       <c r="C15">
-        <v>0.9196016600829466</v>
+        <v>0.2917840693709479</v>
       </c>
       <c r="D15">
-        <v>0.5215411110102366</v>
+        <v>0.6212741164239901</v>
       </c>
       <c r="E15">
-        <v>0.1520035423651578</v>
+        <v>0.2311922421900761</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4982278632183892</v>
+        <v>0.6411871978435073</v>
       </c>
       <c r="H15">
-        <v>0.3259076551322693</v>
+        <v>0.7380108784208375</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04503287582994631</v>
+        <v>0.1069092616183411</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.226247440335413</v>
+        <v>0.5561594168474215</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.689622460805168</v>
+        <v>2.747066477326428</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.766972730881434</v>
+        <v>1.315882433860395</v>
       </c>
       <c r="C16">
-        <v>0.8639315471588702</v>
+        <v>0.2739724246588651</v>
       </c>
       <c r="D16">
-        <v>0.4964034038118257</v>
+        <v>0.6174026401438937</v>
       </c>
       <c r="E16">
-        <v>0.1460604978984712</v>
+        <v>0.2308007623040176</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4764482130504035</v>
+        <v>0.6416005461309879</v>
       </c>
       <c r="H16">
-        <v>0.3210078956812907</v>
+        <v>0.7413847564081948</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04446939769216129</v>
+        <v>0.1073649934755281</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.147854151615704</v>
+        <v>0.533907128968778</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.632880378920134</v>
+        <v>2.754798112009411</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.610054974743946</v>
+        <v>1.267986624987714</v>
       </c>
       <c r="C17">
-        <v>0.8298535152355555</v>
+        <v>0.2630277928330713</v>
       </c>
       <c r="D17">
-        <v>0.4812230218758202</v>
+        <v>0.6151087677531848</v>
       </c>
       <c r="E17">
-        <v>0.1425023429029331</v>
+        <v>0.2305923357503232</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4636794030229936</v>
+        <v>0.6420130676653173</v>
       </c>
       <c r="H17">
-        <v>0.3183219797246721</v>
+        <v>0.7435738498747071</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04416174424482122</v>
+        <v>0.1076596943193344</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.099967637622221</v>
+        <v>0.520276779362348</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.599993408481623</v>
+        <v>2.760124895703626</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.519950176522684</v>
+        <v>1.240428808280967</v>
       </c>
       <c r="C18">
-        <v>0.8102768251768566</v>
+        <v>0.2567263297308955</v>
       </c>
       <c r="D18">
-        <v>0.4725760338484406</v>
+        <v>0.6138192339810757</v>
       </c>
       <c r="E18">
-        <v>0.1404866315096136</v>
+        <v>0.2304841168111516</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4565426808792239</v>
+        <v>0.6423086249839685</v>
       </c>
       <c r="H18">
-        <v>0.3168901269554851</v>
+        <v>0.7448767836685448</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04399823490956223</v>
+        <v>0.107834753613858</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.072494159413736</v>
+        <v>0.5124447028111234</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.581753209747916</v>
+        <v>2.763402892003143</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.489466563006488</v>
+        <v>1.231096635136225</v>
       </c>
       <c r="C19">
-        <v>0.8036523548817058</v>
+        <v>0.2545916755343001</v>
       </c>
       <c r="D19">
-        <v>0.4696624224842196</v>
+        <v>0.6133877468815285</v>
       </c>
       <c r="E19">
-        <v>0.1398093161179013</v>
+        <v>0.2304494788303018</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4541610267817617</v>
+        <v>0.6424186942801953</v>
       </c>
       <c r="H19">
-        <v>0.3164243169113092</v>
+        <v>0.7453254590453611</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04394513398370137</v>
+        <v>0.1078949795139827</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.063203524507017</v>
+        <v>0.5097942379760099</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.575690558831951</v>
+        <v>2.764549518216455</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.626743247321315</v>
+        <v>1.273086201105286</v>
       </c>
       <c r="C20">
-        <v>0.8334786199226585</v>
+        <v>0.2641935328869351</v>
       </c>
       <c r="D20">
-        <v>0.4828301769049403</v>
+        <v>0.6153498663551318</v>
       </c>
       <c r="E20">
-        <v>0.1428778915850017</v>
+        <v>0.2306133160986086</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4650169599623268</v>
+        <v>0.6419631188276185</v>
       </c>
       <c r="H20">
-        <v>0.3185961028883639</v>
+        <v>0.7433362807740167</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04419309134461358</v>
+        <v>0.1076277479074541</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.105057908941447</v>
+        <v>0.5217269552175026</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.603423685631753</v>
+        <v>2.759535677162376</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.089880361659311</v>
+        <v>1.414049450987079</v>
       </c>
       <c r="C21">
-        <v>0.933999948269701</v>
+        <v>0.2963770898008988</v>
       </c>
       <c r="D21">
-        <v>0.5281090821516727</v>
+        <v>0.6222987305011145</v>
       </c>
       <c r="E21">
-        <v>0.153566203815366</v>
+        <v>0.2313031250126016</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5040425599309373</v>
+        <v>0.6411297218885181</v>
       </c>
       <c r="H21">
-        <v>0.32727542005928</v>
+        <v>0.7371767237204239</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04519055436475128</v>
+        <v>0.1067962787541354</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.246555418429054</v>
+        <v>0.5619108168841507</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.704892561635205</v>
+        <v>2.745251037743003</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.394253220877943</v>
+        <v>1.506082803223308</v>
       </c>
       <c r="C22">
-        <v>0.9999772403847942</v>
+        <v>0.3173511995671845</v>
       </c>
       <c r="D22">
-        <v>0.5585428642505406</v>
+        <v>0.6271055734740969</v>
       </c>
       <c r="E22">
-        <v>0.1608566580462103</v>
+        <v>0.231857798228571</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5316173790749872</v>
+        <v>0.6411067546730465</v>
       </c>
       <c r="H22">
-        <v>0.3340539105688549</v>
+        <v>0.7335419440111934</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04597373522144466</v>
+        <v>0.1063023953885178</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.339779749848731</v>
+        <v>0.5882394683120538</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.777901201525026</v>
+        <v>2.737829327481876</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.231631650291661</v>
+        <v>1.456972000438554</v>
       </c>
       <c r="C23">
-        <v>0.9647348432108629</v>
+        <v>0.3061625157930052</v>
       </c>
       <c r="D23">
-        <v>0.5422182143715588</v>
+        <v>0.6245158085109495</v>
       </c>
       <c r="E23">
-        <v>0.1569361531344633</v>
+        <v>0.2315522574962046</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5166996009794929</v>
+        <v>0.6410711472637303</v>
       </c>
       <c r="H23">
-        <v>0.3303298315915271</v>
+        <v>0.7354461032892914</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04554313672792176</v>
+        <v>0.1065614552535266</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.289949254461973</v>
+        <v>0.5741814489049517</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.738288284941916</v>
+        <v>2.741614954886643</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.619198142565097</v>
+        <v>1.27078075077759</v>
       </c>
       <c r="C24">
-        <v>0.8318396633846703</v>
+        <v>0.2636665305878978</v>
       </c>
       <c r="D24">
-        <v>0.4821033326101656</v>
+        <v>0.6152407745823893</v>
       </c>
       <c r="E24">
-        <v>0.1427080131608953</v>
+        <v>0.2306037947245514</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4644116166996071</v>
+        <v>0.641985518833863</v>
       </c>
       <c r="H24">
-        <v>0.3184718230403831</v>
+        <v>0.7434435474806094</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04417887781708529</v>
+        <v>0.1076421733379185</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.102756420748953</v>
+        <v>0.5210713176238926</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.601870787204376</v>
+        <v>2.759801391483791</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.964159318296993</v>
+        <v>1.069589028631469</v>
       </c>
       <c r="C25">
-        <v>0.6893796874433633</v>
+        <v>0.2175845197946842</v>
       </c>
       <c r="D25">
-        <v>0.4204408435646627</v>
+        <v>0.6063771925217907</v>
       </c>
       <c r="E25">
-        <v>0.1285250382341445</v>
+        <v>0.2300265992551331</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4158376430946475</v>
+        <v>0.6451985580098949</v>
       </c>
       <c r="H25">
-        <v>0.3099530701098985</v>
+        <v>0.7537452596826313</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04321568736137493</v>
+        <v>0.109020252159997</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9034362050409541</v>
+        <v>0.4640808068768223</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.480216922011294</v>
+        <v>2.787602357991346</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9211691253470349</v>
+        <v>2.484874521301833</v>
       </c>
       <c r="C2">
-        <v>0.1834521536900695</v>
+        <v>0.5849137732540726</v>
       </c>
       <c r="D2">
-        <v>0.6008320174162094</v>
+        <v>0.3773309716545015</v>
       </c>
       <c r="E2">
-        <v>0.2299847524138805</v>
+        <v>0.118935265473251</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.649463987586941</v>
+        <v>0.3857340300603909</v>
       </c>
       <c r="H2">
-        <v>0.762768681843454</v>
+        <v>0.3068744555224185</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1102173371868922</v>
+        <v>0.04288811476323318</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4223793129907349</v>
+        <v>0.7582673178693042</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.815072590898609</v>
+        <v>1.409293850937104</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8204206955624045</v>
+        <v>2.161152700207253</v>
       </c>
       <c r="C3">
-        <v>0.1601982326561142</v>
+        <v>0.514233327309114</v>
       </c>
       <c r="D3">
-        <v>0.5976860526324259</v>
+        <v>0.3493446154816979</v>
       </c>
       <c r="E3">
-        <v>0.2301952801200073</v>
+        <v>0.1129014822960528</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6535320393179305</v>
+        <v>0.3683807917231618</v>
       </c>
       <c r="H3">
-        <v>0.76977997774312</v>
+        <v>0.3065635759797232</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1111422963292164</v>
+        <v>0.04287913340837335</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3942834481389568</v>
+        <v>0.660589231531155</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.838037381637051</v>
+        <v>1.371384015922359</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7584867392029082</v>
+        <v>1.962692578827586</v>
       </c>
       <c r="C4">
-        <v>0.1458617823548138</v>
+        <v>0.4708493096788686</v>
       </c>
       <c r="D4">
-        <v>0.5960564809138162</v>
+        <v>0.3327068465901561</v>
       </c>
       <c r="E4">
-        <v>0.2304423709180412</v>
+        <v>0.1094059604328699</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.6566080749850585</v>
+        <v>0.3590824435430093</v>
       </c>
       <c r="H4">
-        <v>0.7745265418449421</v>
+        <v>0.3071825753765864</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1117662674607942</v>
+        <v>0.04297108980184561</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3771157369693086</v>
+        <v>0.6008762940695007</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.854276389589984</v>
+        <v>1.352666730862168</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7332310023204798</v>
+        <v>1.881864631936679</v>
       </c>
       <c r="C5">
-        <v>0.1400052480499028</v>
+        <v>0.4531678042809517</v>
       </c>
       <c r="D5">
-        <v>0.595468440687128</v>
+        <v>0.3260557634537662</v>
       </c>
       <c r="E5">
-        <v>0.2305726989930932</v>
+        <v>0.1080313156555555</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6580066410284218</v>
+        <v>0.3556138966096469</v>
       </c>
       <c r="H5">
-        <v>0.7765717961737479</v>
+        <v>0.3076292541823378</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1120346285358416</v>
+        <v>0.04303201084286457</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3701410795864959</v>
+        <v>0.5765971614113639</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.861430817576675</v>
+        <v>1.346122973791196</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7290363142411707</v>
+        <v>1.868445138288877</v>
       </c>
       <c r="C6">
-        <v>0.1390319217937304</v>
+        <v>0.4502315144043223</v>
       </c>
       <c r="D6">
-        <v>0.5953753906817099</v>
+        <v>0.3249589086522633</v>
       </c>
       <c r="E6">
-        <v>0.2305961300953321</v>
+        <v>0.1078059860522629</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6582476227742404</v>
+        <v>0.3550567311712527</v>
       </c>
       <c r="H6">
-        <v>0.776918111126605</v>
+        <v>0.3077149077377968</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1120800404229403</v>
+        <v>0.04304351298370435</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3689842424496774</v>
+        <v>0.5725685929215416</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.862651207389561</v>
+        <v>1.345100065622077</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7581461989780109</v>
+        <v>1.961602357260091</v>
       </c>
       <c r="C7">
-        <v>0.1457828565309853</v>
+        <v>0.4706108667135709</v>
       </c>
       <c r="D7">
-        <v>0.596048242491733</v>
+        <v>0.3326166363692806</v>
       </c>
       <c r="E7">
-        <v>0.2304440085595161</v>
+        <v>0.1093872234186577</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.6566263496678673</v>
+        <v>0.3590343937237108</v>
       </c>
       <c r="H7">
-        <v>0.7745536755347615</v>
+        <v>0.3071878240230816</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1117698296373106</v>
+        <v>0.04297181782494164</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3770215874431813</v>
+        <v>0.6005486516538738</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.854370703956334</v>
+        <v>1.352574172272014</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8864472714478779</v>
+        <v>2.373172315810621</v>
       </c>
       <c r="C8">
-        <v>0.1754465543072854</v>
+        <v>0.5605366518788344</v>
       </c>
       <c r="D8">
-        <v>0.5996846331648413</v>
+        <v>0.3675627859057897</v>
       </c>
       <c r="E8">
-        <v>0.2300328919794694</v>
+        <v>0.1168096484155434</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.6507464304273611</v>
+        <v>0.3794563683080696</v>
       </c>
       <c r="H8">
-        <v>0.7650944905681456</v>
+        <v>0.3065934687047047</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.110524628713037</v>
+        <v>0.04286413048247084</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.412674799500671</v>
+        <v>0.7245264236387783</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.822546484051117</v>
+        <v>1.395237332171035</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.137406482943163</v>
+        <v>3.184229795707893</v>
       </c>
       <c r="C9">
-        <v>0.2331392715973664</v>
+        <v>0.7372800610904449</v>
       </c>
       <c r="D9">
-        <v>0.6092105083856723</v>
+        <v>0.440827768164155</v>
       </c>
       <c r="E9">
-        <v>0.2301614935988177</v>
+        <v>0.1331606704878254</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.6438201194639248</v>
+        <v>0.4312525169443262</v>
       </c>
       <c r="H9">
-        <v>0.7500515237307752</v>
+        <v>0.312296032387934</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1085276939229374</v>
+        <v>0.04347733334721937</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4832380893547708</v>
+        <v>0.9702899455688794</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.777147571141455</v>
+        <v>1.518091192703594</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.321346367459455</v>
+        <v>3.784899622177477</v>
       </c>
       <c r="C10">
-        <v>0.2752204067390664</v>
+        <v>0.8678235680765454</v>
       </c>
       <c r="D10">
-        <v>0.6176684292192647</v>
+        <v>0.4981473177080034</v>
       </c>
       <c r="E10">
-        <v>0.2308261254953479</v>
+        <v>0.1464707870263027</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6415613816203773</v>
+        <v>0.4779340709933422</v>
       </c>
       <c r="H10">
-        <v>0.7411409060671303</v>
+        <v>0.3213300171559297</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1073321190103798</v>
+        <v>0.04450636266684782</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5354634860852769</v>
+        <v>1.153328181679711</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.754219333576515</v>
+        <v>1.636726761157547</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.404920561335075</v>
+        <v>4.059777147264697</v>
       </c>
       <c r="C11">
-        <v>0.294295077892059</v>
+        <v>0.9274710227249727</v>
       </c>
       <c r="D11">
-        <v>0.6218329816871631</v>
+        <v>0.525127498238362</v>
       </c>
       <c r="E11">
-        <v>0.2312523737492143</v>
+        <v>0.1528563318727869</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6411533592697225</v>
+        <v>0.5013967429078861</v>
       </c>
       <c r="H11">
-        <v>0.7375530833143529</v>
+        <v>0.3266501690508647</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1068472709433621</v>
+        <v>0.04511845672968917</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5593030588673855</v>
+        <v>1.237345093751273</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.746065207111712</v>
+        <v>1.697938456487606</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.436552239962168</v>
+        <v>4.164151998844602</v>
       </c>
       <c r="C12">
-        <v>0.301508029824106</v>
+        <v>0.9501055249317005</v>
       </c>
       <c r="D12">
-        <v>0.6234555373125374</v>
+        <v>0.5354874908576335</v>
       </c>
       <c r="E12">
-        <v>0.2314316004633525</v>
+        <v>0.1553263360120205</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6410883243661658</v>
+        <v>0.5106336991605644</v>
       </c>
       <c r="H12">
-        <v>0.7362615006559139</v>
+        <v>0.3288532585876709</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1066721662507391</v>
+        <v>0.04537261612410148</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5683419725318402</v>
+        <v>1.269287055104954</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.743305728816694</v>
+        <v>1.722257448615096</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.429740530300933</v>
+        <v>4.14165949702334</v>
       </c>
       <c r="C13">
-        <v>0.2999550520403602</v>
+        <v>0.9452285147200143</v>
       </c>
       <c r="D13">
-        <v>0.6231040668336902</v>
+        <v>0.5332496944339482</v>
       </c>
       <c r="E13">
-        <v>0.2313922084458504</v>
+        <v>0.1547919929215169</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6410983451668102</v>
+        <v>0.5086281573370144</v>
       </c>
       <c r="H13">
-        <v>0.7365366827391711</v>
+        <v>0.3283701601405085</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1067095001395479</v>
+        <v>0.04531685527711815</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5663947807893521</v>
+        <v>1.262401841728803</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.743885413845135</v>
+        <v>1.716967598268582</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.407523249064354</v>
+        <v>4.068358119578306</v>
       </c>
       <c r="C14">
-        <v>0.294888698715738</v>
+        <v>0.9293321710160285</v>
       </c>
       <c r="D14">
-        <v>0.6219655581369921</v>
+        <v>0.5259768731576742</v>
       </c>
       <c r="E14">
-        <v>0.2312667617927602</v>
+        <v>0.1530584733378291</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6411462133674348</v>
+        <v>0.5021494231766468</v>
       </c>
       <c r="H14">
-        <v>0.7374454797963921</v>
+        <v>0.3268275548550577</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1068326946355711</v>
+        <v>0.04513890814740407</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5600464698636358</v>
+        <v>1.23997032994518</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.745831597469618</v>
+        <v>1.699915769684367</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.393912386736417</v>
+        <v>4.023497553116329</v>
       </c>
       <c r="C15">
-        <v>0.2917840693709479</v>
+        <v>0.9196016600827193</v>
       </c>
       <c r="D15">
-        <v>0.6212741164239901</v>
+        <v>0.521541111010265</v>
       </c>
       <c r="E15">
-        <v>0.2311922421900761</v>
+        <v>0.1520035423651578</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6411871978435073</v>
+        <v>0.498227863218375</v>
       </c>
       <c r="H15">
-        <v>0.7380108784208375</v>
+        <v>0.3259076551322551</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1069092616183411</v>
+        <v>0.04503287582986104</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5561594168474215</v>
+        <v>1.226247440335399</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.747066477326428</v>
+        <v>1.689622460805225</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.315882433860395</v>
+        <v>3.766972730881207</v>
       </c>
       <c r="C16">
-        <v>0.2739724246588651</v>
+        <v>0.8639315471591829</v>
       </c>
       <c r="D16">
-        <v>0.6174026401438937</v>
+        <v>0.4964034038116552</v>
       </c>
       <c r="E16">
-        <v>0.2308007623040176</v>
+        <v>0.1460604978984748</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6416005461309879</v>
+        <v>0.4764482130504177</v>
       </c>
       <c r="H16">
-        <v>0.7413847564081948</v>
+        <v>0.3210078956812907</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1073649934755281</v>
+        <v>0.04446939769210445</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.533907128968778</v>
+        <v>1.147854151615689</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.754798112009411</v>
+        <v>1.632880378920134</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.267986624987714</v>
+        <v>3.610054974743889</v>
       </c>
       <c r="C17">
-        <v>0.2630277928330713</v>
+        <v>0.8298535152353566</v>
       </c>
       <c r="D17">
-        <v>0.6151087677531848</v>
+        <v>0.481223021875735</v>
       </c>
       <c r="E17">
-        <v>0.2305923357503232</v>
+        <v>0.1425023429029366</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.6420130676653173</v>
+        <v>0.463679403022951</v>
       </c>
       <c r="H17">
-        <v>0.7435738498747071</v>
+        <v>0.3183219797246579</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1076596943193344</v>
+        <v>0.04416174424494912</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.520276779362348</v>
+        <v>1.099967637622228</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.760124895703626</v>
+        <v>1.599993408481652</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.240428808280967</v>
+        <v>3.51995017652257</v>
       </c>
       <c r="C18">
-        <v>0.2567263297308955</v>
+        <v>0.8102768251773114</v>
       </c>
       <c r="D18">
-        <v>0.6138192339810757</v>
+        <v>0.4725760338484122</v>
       </c>
       <c r="E18">
-        <v>0.2304841168111516</v>
+        <v>0.14048663150961</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6423086249839685</v>
+        <v>0.4565426808791813</v>
       </c>
       <c r="H18">
-        <v>0.7448767836685448</v>
+        <v>0.3168901269554709</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.107834753613858</v>
+        <v>0.04399823490959065</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5124447028111234</v>
+        <v>1.072494159413743</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.763402892003143</v>
+        <v>1.581753209747887</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.231096635136225</v>
+        <v>3.489466563006374</v>
       </c>
       <c r="C19">
-        <v>0.2545916755343001</v>
+        <v>0.803652354882189</v>
       </c>
       <c r="D19">
-        <v>0.6133877468815285</v>
+        <v>0.4696624224840775</v>
       </c>
       <c r="E19">
-        <v>0.2304494788303018</v>
+        <v>0.1398093161179155</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6424186942801953</v>
+        <v>0.4541610267817333</v>
       </c>
       <c r="H19">
-        <v>0.7453254590453611</v>
+        <v>0.3164243169113092</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1078949795139827</v>
+        <v>0.04394513398369426</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5097942379760099</v>
+        <v>1.063203524507031</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.764549518216455</v>
+        <v>1.575690558831866</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.273086201105286</v>
+        <v>3.626743247321599</v>
       </c>
       <c r="C20">
-        <v>0.2641935328869351</v>
+        <v>0.8334786199227153</v>
       </c>
       <c r="D20">
-        <v>0.6153498663551318</v>
+        <v>0.482830176905054</v>
       </c>
       <c r="E20">
-        <v>0.2306133160986086</v>
+        <v>0.142877891585016</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6419631188276185</v>
+        <v>0.4650169599622558</v>
       </c>
       <c r="H20">
-        <v>0.7433362807740167</v>
+        <v>0.3185961028883639</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1076277479074541</v>
+        <v>0.04419309134450344</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5217269552175026</v>
+        <v>1.105057908941433</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.759535677162376</v>
+        <v>1.603423685631782</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.414049450987079</v>
+        <v>4.089880361659198</v>
       </c>
       <c r="C21">
-        <v>0.2963770898008988</v>
+        <v>0.9339999482696726</v>
       </c>
       <c r="D21">
-        <v>0.6222987305011145</v>
+        <v>0.5281090821517012</v>
       </c>
       <c r="E21">
-        <v>0.2313031250126016</v>
+        <v>0.153566203815366</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6411297218885181</v>
+        <v>0.5040425599309231</v>
       </c>
       <c r="H21">
-        <v>0.7371767237204239</v>
+        <v>0.3272754200594079</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1067962787541354</v>
+        <v>0.04519055436482944</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5619108168841507</v>
+        <v>1.246555418429054</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.745251037743003</v>
+        <v>1.704892561635262</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.506082803223308</v>
+        <v>4.394253220877886</v>
       </c>
       <c r="C22">
-        <v>0.3173511995671845</v>
+        <v>0.9999772403845384</v>
       </c>
       <c r="D22">
-        <v>0.6271055734740969</v>
+        <v>0.5585428642506542</v>
       </c>
       <c r="E22">
-        <v>0.231857798228571</v>
+        <v>0.1608566580462494</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6411067546730465</v>
+        <v>0.5316173790750014</v>
       </c>
       <c r="H22">
-        <v>0.7335419440111934</v>
+        <v>0.3340539105687412</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1063023953885178</v>
+        <v>0.0459737352213736</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5882394683120538</v>
+        <v>1.339779749848731</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.737829327481876</v>
+        <v>1.777901201525083</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.456972000438554</v>
+        <v>4.231631650291718</v>
       </c>
       <c r="C23">
-        <v>0.3061625157930052</v>
+        <v>0.9647348432110903</v>
       </c>
       <c r="D23">
-        <v>0.6245158085109495</v>
+        <v>0.5422182143715872</v>
       </c>
       <c r="E23">
-        <v>0.2315522574962046</v>
+        <v>0.1569361531344775</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6410711472637303</v>
+        <v>0.5166996009794786</v>
       </c>
       <c r="H23">
-        <v>0.7354461032892914</v>
+        <v>0.3303298315915271</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1065614552535266</v>
+        <v>0.04554313672782229</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5741814489049517</v>
+        <v>1.289949254461931</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.741614954886643</v>
+        <v>1.738288284941888</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.27078075077759</v>
+        <v>3.619198142565324</v>
       </c>
       <c r="C24">
-        <v>0.2636665305878978</v>
+        <v>0.8318396633843861</v>
       </c>
       <c r="D24">
-        <v>0.6152407745823893</v>
+        <v>0.4821033326101656</v>
       </c>
       <c r="E24">
-        <v>0.2306037947245514</v>
+        <v>0.1427080131608811</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.641985518833863</v>
+        <v>0.4644116166996497</v>
       </c>
       <c r="H24">
-        <v>0.7434435474806094</v>
+        <v>0.3184718230402552</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1076421733379185</v>
+        <v>0.04417887781703556</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5210713176238926</v>
+        <v>1.10275642074896</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.759801391483791</v>
+        <v>1.601870787204376</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.069589028631469</v>
+        <v>2.964159318297163</v>
       </c>
       <c r="C25">
-        <v>0.2175845197946842</v>
+        <v>0.6893796874435054</v>
       </c>
       <c r="D25">
-        <v>0.6063771925217907</v>
+        <v>0.4204408435646627</v>
       </c>
       <c r="E25">
-        <v>0.2300265992551331</v>
+        <v>0.1285250382341694</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.6451985580098949</v>
+        <v>0.415837643094676</v>
       </c>
       <c r="H25">
-        <v>0.7537452596826313</v>
+        <v>0.3099530701097848</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.109020252159997</v>
+        <v>0.04321568736122217</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4640808068768223</v>
+        <v>0.9034362050409399</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.787602357991346</v>
+        <v>1.480216922011266</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.484874521301833</v>
+        <v>1.363910772091799</v>
       </c>
       <c r="C2">
-        <v>0.5849137732540726</v>
+        <v>0.118741446768297</v>
       </c>
       <c r="D2">
-        <v>0.3773309716545015</v>
+        <v>0.2645684810132138</v>
       </c>
       <c r="E2">
-        <v>0.118935265473251</v>
+        <v>0.05370105063058084</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3857340300603909</v>
+        <v>1.322230292139864</v>
       </c>
       <c r="H2">
-        <v>0.3068744555224185</v>
+        <v>0.02567986968725045</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02563934319537964</v>
       </c>
       <c r="J2">
-        <v>0.04288811476323318</v>
+        <v>0.8912760144850296</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9364685263916002</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.009221512950067901</v>
       </c>
       <c r="M2">
-        <v>0.7582673178693042</v>
+        <v>1.282109618627658</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3143489473912098</v>
       </c>
       <c r="O2">
-        <v>1.409293850937104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.51366420706578</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.161152700207253</v>
+        <v>1.197771760354783</v>
       </c>
       <c r="C3">
-        <v>0.514233327309114</v>
+        <v>0.1024956454809427</v>
       </c>
       <c r="D3">
-        <v>0.3493446154816979</v>
+        <v>0.2421576257974465</v>
       </c>
       <c r="E3">
-        <v>0.1129014822960528</v>
+        <v>0.04902390656094546</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3683807917231618</v>
+        <v>1.257926843348343</v>
       </c>
       <c r="H3">
-        <v>0.3065635759797232</v>
+        <v>0.03113543829095056</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.03087025089297812</v>
       </c>
       <c r="J3">
-        <v>0.04287913340837335</v>
+        <v>0.8654354831919022</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9058105283613216</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.007706103517016505</v>
       </c>
       <c r="M3">
-        <v>0.660589231531155</v>
+        <v>1.12155217026293</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2811001112955864</v>
       </c>
       <c r="O3">
-        <v>1.371384015922359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.537051806683614</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.962692578827586</v>
+        <v>1.095626326298913</v>
       </c>
       <c r="C4">
-        <v>0.4708493096788686</v>
+        <v>0.09271921255017901</v>
       </c>
       <c r="D4">
-        <v>0.3327068465901561</v>
+        <v>0.2284810194704079</v>
       </c>
       <c r="E4">
-        <v>0.1094059604328699</v>
+        <v>0.04613906073250007</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3590824435430093</v>
+        <v>1.218898804566805</v>
       </c>
       <c r="H4">
-        <v>0.3071825753765864</v>
+        <v>0.03487812031964621</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.03448377269717939</v>
       </c>
       <c r="J4">
-        <v>0.04297108980184561</v>
+        <v>0.8498753095705212</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8871389958493481</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.006814103803233884</v>
       </c>
       <c r="M4">
-        <v>0.6008762940695007</v>
+        <v>1.023201480514871</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2607732060159975</v>
       </c>
       <c r="O4">
-        <v>1.352666730862168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.551725825298433</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.881864631936679</v>
+        <v>1.052996566265108</v>
       </c>
       <c r="C5">
-        <v>0.4531678042809517</v>
+        <v>0.08899077890818319</v>
       </c>
       <c r="D5">
-        <v>0.3260557634537662</v>
+        <v>0.2228789958156199</v>
       </c>
       <c r="E5">
-        <v>0.1080313156555555</v>
+        <v>0.04493616607666517</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3556138966096469</v>
+        <v>1.201934822580171</v>
       </c>
       <c r="H5">
-        <v>0.3076292541823378</v>
+        <v>0.03651017310600846</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.03615911383174009</v>
       </c>
       <c r="J5">
-        <v>0.04303201084286457</v>
+        <v>0.8430153567243366</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8787153095568172</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.006455165885964842</v>
       </c>
       <c r="M5">
-        <v>0.5765971614113639</v>
+        <v>0.9828300361704692</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2525994016615698</v>
       </c>
       <c r="O5">
-        <v>1.346122973791196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1.556971400873692</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.868445138288877</v>
+        <v>1.044737426258735</v>
       </c>
       <c r="C6">
-        <v>0.4502315144043223</v>
+        <v>0.08863209321393128</v>
       </c>
       <c r="D6">
-        <v>0.3249589086522633</v>
+        <v>0.2218914249770876</v>
       </c>
       <c r="E6">
-        <v>0.1078059860522629</v>
+        <v>0.04470742051712584</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3550567311712527</v>
+        <v>1.197700327016435</v>
       </c>
       <c r="H6">
-        <v>0.3077149077377968</v>
+        <v>0.03680068285780558</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.03657872414356778</v>
       </c>
       <c r="J6">
-        <v>0.04304351298370435</v>
+        <v>0.8411570013413012</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8762802470666742</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.006391269534331556</v>
       </c>
       <c r="M6">
-        <v>0.5725685929215416</v>
+        <v>0.9757142741984239</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.251354301561264</v>
       </c>
       <c r="O6">
-        <v>1.345100065622077</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1.556858493339249</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.961602357260091</v>
+        <v>1.091823575610022</v>
       </c>
       <c r="C7">
-        <v>0.4706108667135709</v>
+        <v>0.09337378999752843</v>
       </c>
       <c r="D7">
-        <v>0.3326166363692806</v>
+        <v>0.2282456542458249</v>
       </c>
       <c r="E7">
-        <v>0.1093872234186577</v>
+        <v>0.04604421053524099</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3590343937237108</v>
+        <v>1.214780628189686</v>
       </c>
       <c r="H7">
-        <v>0.3071878240230816</v>
+        <v>0.03493587655496544</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.03485721544514409</v>
       </c>
       <c r="J7">
-        <v>0.04297181782494164</v>
+        <v>0.8478078824379764</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8841898580908705</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.006795940893426611</v>
       </c>
       <c r="M7">
-        <v>0.6005486516538738</v>
+        <v>1.02151965629119</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2609672362904973</v>
       </c>
       <c r="O7">
-        <v>1.352574172272014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1.549112978604612</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.373172315810621</v>
+        <v>1.302330639506778</v>
       </c>
       <c r="C8">
-        <v>0.5605366518788344</v>
+        <v>0.1140349607025257</v>
       </c>
       <c r="D8">
-        <v>0.3675627859057897</v>
+        <v>0.2566107232505601</v>
       </c>
       <c r="E8">
-        <v>0.1168096484155434</v>
+        <v>0.05198632168009532</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3794563683080696</v>
+        <v>1.294814073101648</v>
       </c>
       <c r="H8">
-        <v>0.3065934687047047</v>
+        <v>0.02751792409496856</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.02777606209155437</v>
       </c>
       <c r="J8">
-        <v>0.04286413048247084</v>
+        <v>0.8796954154410344</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9221181439169186</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.008671622662715706</v>
       </c>
       <c r="M8">
-        <v>0.7245264236387783</v>
+        <v>1.225166542161304</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3032712663722066</v>
       </c>
       <c r="O8">
-        <v>1.395237332171035</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1.518188755755787</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.184229795707893</v>
+        <v>1.720334330311005</v>
       </c>
       <c r="C9">
-        <v>0.7372800610904449</v>
+        <v>0.1550730210809519</v>
       </c>
       <c r="D9">
-        <v>0.440827768164155</v>
+        <v>0.313282649748416</v>
       </c>
       <c r="E9">
-        <v>0.1331606704878254</v>
+        <v>0.0637006962402431</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4312525169443262</v>
+        <v>1.462791313400572</v>
       </c>
       <c r="H9">
-        <v>0.312296032387934</v>
+        <v>0.01619135149014839</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01670246312208779</v>
       </c>
       <c r="J9">
-        <v>0.04347733334721937</v>
+        <v>0.9483804903410373</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.002954004846842</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.01273734435731866</v>
       </c>
       <c r="M9">
-        <v>0.9702899455688794</v>
+        <v>1.62905160696701</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3865324941046708</v>
       </c>
       <c r="O9">
-        <v>1.518091192703594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.464839943324222</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.784899622177477</v>
+        <v>2.013140723029267</v>
       </c>
       <c r="C10">
-        <v>0.8678235680765454</v>
+        <v>0.1873609815738462</v>
       </c>
       <c r="D10">
-        <v>0.4981473177080034</v>
+        <v>0.3503519135994253</v>
       </c>
       <c r="E10">
-        <v>0.1464707870263027</v>
+        <v>0.06986222373817697</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4779340709933422</v>
+        <v>1.56770366361053</v>
       </c>
       <c r="H10">
-        <v>0.3213300171559297</v>
+        <v>0.0105460744564172</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01111952343947564</v>
       </c>
       <c r="J10">
-        <v>0.04450636266684782</v>
+        <v>0.9899089783629904</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.049562957586183</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.01585291566299496</v>
       </c>
       <c r="M10">
-        <v>1.153328181679711</v>
+        <v>1.918206840274024</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4361015312834553</v>
       </c>
       <c r="O10">
-        <v>1.636726761157547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.414880816120096</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.059777147264697</v>
+        <v>2.028341849894787</v>
       </c>
       <c r="C11">
-        <v>0.9274710227249727</v>
+        <v>0.2068971768855477</v>
       </c>
       <c r="D11">
-        <v>0.525127498238362</v>
+        <v>0.3235991557759661</v>
       </c>
       <c r="E11">
-        <v>0.1528563318727869</v>
+        <v>0.05387435510760419</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5013967429078861</v>
+        <v>1.441996615680637</v>
       </c>
       <c r="H11">
-        <v>0.3266501690508647</v>
+        <v>0.02879701798327972</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01056342040557467</v>
       </c>
       <c r="J11">
-        <v>0.04511845672968917</v>
+        <v>0.9220122650206406</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.9608913841233218</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.01974828093228886</v>
       </c>
       <c r="M11">
-        <v>1.237345093751273</v>
+        <v>1.965689644497388</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3563092932485006</v>
       </c>
       <c r="O11">
-        <v>1.697938456487606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.299340262631937</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.164151998844602</v>
+        <v>1.983253862009292</v>
       </c>
       <c r="C12">
-        <v>0.9501055249317005</v>
+        <v>0.2154373884058742</v>
       </c>
       <c r="D12">
-        <v>0.5354874908576335</v>
+        <v>0.2943209745698141</v>
       </c>
       <c r="E12">
-        <v>0.1553263360120205</v>
+        <v>0.04201276020010702</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5106336991605644</v>
+        <v>1.323318765765308</v>
       </c>
       <c r="H12">
-        <v>0.3288532585876709</v>
+        <v>0.06782808417616337</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01053024639919631</v>
       </c>
       <c r="J12">
-        <v>0.04537261612410148</v>
+        <v>0.860513765272259</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.8836987955399209</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.02759130035682489</v>
       </c>
       <c r="M12">
-        <v>1.269287055104954</v>
+        <v>1.944990243095532</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2856024344007153</v>
       </c>
       <c r="O12">
-        <v>1.722257448615096</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.226341611080279</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.14165949702334</v>
+        <v>1.88432727570526</v>
       </c>
       <c r="C13">
-        <v>0.9452285147200143</v>
+        <v>0.2169951769396903</v>
       </c>
       <c r="D13">
-        <v>0.5332496944339482</v>
+        <v>0.2613196683045373</v>
       </c>
       <c r="E13">
-        <v>0.1547919929215169</v>
+        <v>0.03255714900572126</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5086281573370144</v>
+        <v>1.197244508317766</v>
       </c>
       <c r="H13">
-        <v>0.3283701601405085</v>
+        <v>0.1245713778966433</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01134378991640972</v>
       </c>
       <c r="J13">
-        <v>0.04531685527711815</v>
+        <v>0.7973135735799417</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8065253902005765</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.03872369653981167</v>
       </c>
       <c r="M13">
-        <v>1.262401841728803</v>
+        <v>1.86883932439676</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2187222990344253</v>
       </c>
       <c r="O13">
-        <v>1.716967598268582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.177048728806838</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.068358119578306</v>
+        <v>1.790337559087163</v>
       </c>
       <c r="C14">
-        <v>0.9293321710160285</v>
+        <v>0.2151686177027727</v>
       </c>
       <c r="D14">
-        <v>0.5259768731576742</v>
+        <v>0.2368521590135231</v>
       </c>
       <c r="E14">
-        <v>0.1530584733378291</v>
+        <v>0.02744402330828866</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5021494231766468</v>
+        <v>1.105928834292669</v>
       </c>
       <c r="H14">
-        <v>0.3268275548550577</v>
+        <v>0.174910756911288</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01243529640011865</v>
       </c>
       <c r="J14">
-        <v>0.04513890814740407</v>
+        <v>0.7523809189466135</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.7526735819017532</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.04860456675552527</v>
       </c>
       <c r="M14">
-        <v>1.23997032994518</v>
+        <v>1.790483500000136</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.175183521041788</v>
       </c>
       <c r="O14">
-        <v>1.699915769684367</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.154068138365016</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.023497553116329</v>
+        <v>1.755098587401477</v>
       </c>
       <c r="C15">
-        <v>0.9196016600827193</v>
+        <v>0.2135349464726204</v>
       </c>
       <c r="D15">
-        <v>0.521541111010265</v>
+        <v>0.2299938149487275</v>
       </c>
       <c r="E15">
-        <v>0.1520035423651578</v>
+        <v>0.0263474652234903</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.498227863218375</v>
+        <v>1.080630960026625</v>
       </c>
       <c r="H15">
-        <v>0.3259076551322551</v>
+        <v>0.1878843301617934</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0130550999810195</v>
       </c>
       <c r="J15">
-        <v>0.04503287582986104</v>
+        <v>0.7403454973586321</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.738428309428258</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05102645812699791</v>
       </c>
       <c r="M15">
-        <v>1.226247440335399</v>
+        <v>1.759466773738808</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1645878160807968</v>
       </c>
       <c r="O15">
-        <v>1.689622460805225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.151723851278103</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.766972730881207</v>
+        <v>1.649745583667993</v>
       </c>
       <c r="C16">
-        <v>0.8639315471591829</v>
+        <v>0.1994580460875568</v>
       </c>
       <c r="D16">
-        <v>0.4964034038116552</v>
+        <v>0.2214723787668049</v>
       </c>
       <c r="E16">
-        <v>0.1460604978984748</v>
+        <v>0.02588281117145375</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4764482130504177</v>
+        <v>1.060634528608418</v>
       </c>
       <c r="H16">
-        <v>0.3210078956812907</v>
+        <v>0.1775063701206676</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01540524181659109</v>
       </c>
       <c r="J16">
-        <v>0.04446939769210445</v>
+        <v>0.7348165639519522</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7334843399191726</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.04707099406983417</v>
       </c>
       <c r="M16">
-        <v>1.147854151615689</v>
+        <v>1.65126568247527</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1590199638223098</v>
       </c>
       <c r="O16">
-        <v>1.632880378920134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.1802426081475</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.610054974743889</v>
+        <v>1.618481018074704</v>
       </c>
       <c r="C17">
-        <v>0.8298535152353566</v>
+        <v>0.1897292628101752</v>
       </c>
       <c r="D17">
-        <v>0.481223021875735</v>
+        <v>0.2277066765417999</v>
       </c>
       <c r="E17">
-        <v>0.1425023429029366</v>
+        <v>0.02793234416128243</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.463679403022951</v>
+        <v>1.093076101347876</v>
       </c>
       <c r="H17">
-        <v>0.3183219797246579</v>
+        <v>0.1410435548618665</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01667639497467377</v>
       </c>
       <c r="J17">
-        <v>0.04416174424494912</v>
+        <v>0.7541540802270248</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.757757396848163</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0383961781093447</v>
       </c>
       <c r="M17">
-        <v>1.099967637622228</v>
+        <v>1.609831818645688</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1768559843972071</v>
       </c>
       <c r="O17">
-        <v>1.599993408481652</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.213741715541012</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.51995017652257</v>
+        <v>1.64969555148474</v>
       </c>
       <c r="C18">
-        <v>0.8102768251773114</v>
+        <v>0.1819271060141006</v>
       </c>
       <c r="D18">
-        <v>0.4725760338484122</v>
+        <v>0.2480417464450113</v>
       </c>
       <c r="E18">
-        <v>0.14048663150961</v>
+        <v>0.03382449764402296</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4565426808791813</v>
+        <v>1.179259125889885</v>
       </c>
       <c r="H18">
-        <v>0.3168901269554709</v>
+        <v>0.08842916545046364</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01665151573069945</v>
       </c>
       <c r="J18">
-        <v>0.04399823490959065</v>
+        <v>0.7994634346438829</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8136823757613598</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.02706128138020958</v>
       </c>
       <c r="M18">
-        <v>1.072494159413743</v>
+        <v>1.6214470224416</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2207277390731122</v>
       </c>
       <c r="O18">
-        <v>1.581753209747887</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.261640752077806</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.489466563006374</v>
+        <v>1.723253673888138</v>
       </c>
       <c r="C19">
-        <v>0.803652354882189</v>
+        <v>0.1777099278078111</v>
       </c>
       <c r="D19">
-        <v>0.4696624224840775</v>
+        <v>0.2790943283000331</v>
       </c>
       <c r="E19">
-        <v>0.1398093161179155</v>
+        <v>0.04445684670721661</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4541610267817333</v>
+        <v>1.300461375785133</v>
       </c>
       <c r="H19">
-        <v>0.3164243169113092</v>
+        <v>0.04217026646162481</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01616306862968564</v>
       </c>
       <c r="J19">
-        <v>0.04394513398369426</v>
+        <v>0.8611722944587541</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.8898791097108898</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.01806398141725829</v>
       </c>
       <c r="M19">
-        <v>1.063203524507031</v>
+        <v>1.672600542160893</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2892021992906848</v>
       </c>
       <c r="O19">
-        <v>1.575690558831866</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.322461423332754</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.626743247321599</v>
+        <v>1.925313003643765</v>
       </c>
       <c r="C20">
-        <v>0.8334786199227153</v>
+        <v>0.1810496834573172</v>
       </c>
       <c r="D20">
-        <v>0.482830176905054</v>
+        <v>0.3398651982559215</v>
       </c>
       <c r="E20">
-        <v>0.142877891585016</v>
+        <v>0.06789969278563035</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4650169599622558</v>
+        <v>1.527054416001533</v>
       </c>
       <c r="H20">
-        <v>0.3185961028883639</v>
+        <v>0.01193208165771331</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01340032932054847</v>
       </c>
       <c r="J20">
-        <v>0.04419309134450344</v>
+        <v>0.9723854452016951</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.027986978673809</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.01495397630981588</v>
       </c>
       <c r="M20">
-        <v>1.105057908941433</v>
+        <v>1.83799502788392</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4234889754926741</v>
       </c>
       <c r="O20">
-        <v>1.603423685631782</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1.419689090979823</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.089880361659198</v>
+        <v>2.172302079677706</v>
       </c>
       <c r="C21">
-        <v>0.9339999482696726</v>
+        <v>0.2053243546468764</v>
       </c>
       <c r="D21">
-        <v>0.5281090821517012</v>
+        <v>0.3765233095574416</v>
       </c>
       <c r="E21">
-        <v>0.153566203815366</v>
+        <v>0.07638308873909594</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5040425599309231</v>
+        <v>1.641908107670844</v>
       </c>
       <c r="H21">
-        <v>0.3272754200594079</v>
+        <v>0.007661239954344368</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00945790554627024</v>
       </c>
       <c r="J21">
-        <v>0.04519055436482944</v>
+        <v>1.021542305917109</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.085415834388627</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.01773238684985312</v>
       </c>
       <c r="M21">
-        <v>1.246555418429054</v>
+        <v>2.076216414937477</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4809689121472616</v>
       </c>
       <c r="O21">
-        <v>1.704892561635262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1.401290352638405</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.394253220877886</v>
+        <v>2.331820395136333</v>
       </c>
       <c r="C22">
-        <v>0.9999772403845384</v>
+        <v>0.2208021124933737</v>
       </c>
       <c r="D22">
-        <v>0.5585428642506542</v>
+        <v>0.3982622307457149</v>
       </c>
       <c r="E22">
-        <v>0.1608566580462494</v>
+        <v>0.08082575322177732</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5316173790750014</v>
+        <v>1.712784521848931</v>
       </c>
       <c r="H22">
-        <v>0.3340539105687412</v>
+        <v>0.005553427403917177</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.007069026884794383</v>
       </c>
       <c r="J22">
-        <v>0.0459737352213736</v>
+        <v>1.051629432636133</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.120543084994289</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.01956878246060079</v>
       </c>
       <c r="M22">
-        <v>1.339779749848731</v>
+        <v>2.229456802129931</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5119720780290891</v>
       </c>
       <c r="O22">
-        <v>1.777901201525083</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1.387070778882915</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.231631650291718</v>
+        <v>2.250620644907144</v>
       </c>
       <c r="C23">
-        <v>0.9647348432110903</v>
+        <v>0.2116488428625303</v>
       </c>
       <c r="D23">
-        <v>0.5422182143715872</v>
+        <v>0.3868356042948591</v>
       </c>
       <c r="E23">
-        <v>0.1569361531344775</v>
+        <v>0.07854807146557974</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5166996009794786</v>
+        <v>1.679448846269253</v>
       </c>
       <c r="H23">
-        <v>0.3303298315915271</v>
+        <v>0.006617109434412349</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.007941373295944132</v>
       </c>
       <c r="J23">
-        <v>0.04554313672782229</v>
+        <v>1.037826321430686</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.105079198929324</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.01860046448141883</v>
       </c>
       <c r="M23">
-        <v>1.289949254461931</v>
+        <v>2.149017571892784</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4950315461653361</v>
       </c>
       <c r="O23">
-        <v>1.738288284941888</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1.397507218701136</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.619198142565324</v>
+        <v>1.937491084475994</v>
       </c>
       <c r="C24">
-        <v>0.8318396633843861</v>
+        <v>0.179048613123058</v>
       </c>
       <c r="D24">
-        <v>0.4821033326101656</v>
+        <v>0.3435871445032319</v>
       </c>
       <c r="E24">
-        <v>0.1427080131608811</v>
+        <v>0.06979591283180042</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4644116166996497</v>
+        <v>1.547804847112815</v>
       </c>
       <c r="H24">
-        <v>0.3184718230402552</v>
+        <v>0.01163084268935502</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01276649268337415</v>
       </c>
       <c r="J24">
-        <v>0.04417887781703556</v>
+        <v>0.982927289918166</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.042013775238495</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.01507001763424398</v>
       </c>
       <c r="M24">
-        <v>1.10275642074896</v>
+        <v>1.843707232002004</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4318848738188166</v>
       </c>
       <c r="O24">
-        <v>1.601870787204376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1.433422422735454</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.964159318297163</v>
+        <v>1.60128370815147</v>
       </c>
       <c r="C25">
-        <v>0.6893796874435054</v>
+        <v>0.1450442623535508</v>
       </c>
       <c r="D25">
-        <v>0.4204408435646627</v>
+        <v>0.2975645373739013</v>
       </c>
       <c r="E25">
-        <v>0.1285250382341694</v>
+        <v>0.06039306134287514</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.415837643094676</v>
+        <v>1.409824156097827</v>
       </c>
       <c r="H25">
-        <v>0.3099530701097848</v>
+        <v>0.01892572403714743</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01987682298590432</v>
       </c>
       <c r="J25">
-        <v>0.04321568736122217</v>
+        <v>0.925943708511582</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9758088089799983</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.01156309956732304</v>
       </c>
       <c r="M25">
-        <v>0.9034362050409399</v>
+        <v>1.517308033698129</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3644561077627344</v>
       </c>
       <c r="O25">
-        <v>1.480216922011266</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.474368211300586</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.363910772091799</v>
+        <v>1.231913025460244</v>
       </c>
       <c r="C2">
-        <v>0.118741446768297</v>
+        <v>0.1425467491088312</v>
       </c>
       <c r="D2">
-        <v>0.2645684810132138</v>
+        <v>0.2599838961594259</v>
       </c>
       <c r="E2">
-        <v>0.05370105063058084</v>
+        <v>0.05151032213894169</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.322230292139864</v>
+        <v>1.135879191094332</v>
       </c>
       <c r="H2">
-        <v>0.02567986968725045</v>
+        <v>0.02099736828746956</v>
       </c>
       <c r="I2">
-        <v>0.02563934319537964</v>
+        <v>0.01904298428607554</v>
       </c>
       <c r="J2">
-        <v>0.8912760144850296</v>
+        <v>0.782884632253257</v>
       </c>
       <c r="K2">
-        <v>0.9364685263916002</v>
+        <v>0.784219341514742</v>
       </c>
       <c r="L2">
-        <v>0.009221512950067901</v>
+        <v>0.3123331406745748</v>
       </c>
       <c r="M2">
-        <v>1.282109618627658</v>
+        <v>0.2754159546081105</v>
       </c>
       <c r="N2">
-        <v>0.3143489473912098</v>
+        <v>0.009255882624341627</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.240710439882179</v>
       </c>
       <c r="P2">
-        <v>1.51366420706578</v>
+        <v>0.3372421395802974</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.348041128057062</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.197771760354783</v>
+        <v>1.083462743203512</v>
       </c>
       <c r="C3">
-        <v>0.1024956454809427</v>
+        <v>0.1220559528648693</v>
       </c>
       <c r="D3">
-        <v>0.2421576257974465</v>
+        <v>0.2385667210546245</v>
       </c>
       <c r="E3">
-        <v>0.04902390656094546</v>
+        <v>0.04736021724925976</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.257926843348343</v>
+        <v>1.093598764664719</v>
       </c>
       <c r="H3">
-        <v>0.03113543829095056</v>
+        <v>0.02549858232077518</v>
       </c>
       <c r="I3">
-        <v>0.03087025089297812</v>
+        <v>0.02294789758569404</v>
       </c>
       <c r="J3">
-        <v>0.8654354831919022</v>
+        <v>0.7591057997617838</v>
       </c>
       <c r="K3">
-        <v>0.9058105283613216</v>
+        <v>0.7655804600973255</v>
       </c>
       <c r="L3">
-        <v>0.007706103517016505</v>
+        <v>0.3110577896840567</v>
       </c>
       <c r="M3">
-        <v>1.12155217026293</v>
+        <v>0.2645212961051477</v>
       </c>
       <c r="N3">
-        <v>0.2811001112955864</v>
+        <v>0.007844027110755381</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.085915680432663</v>
       </c>
       <c r="P3">
-        <v>1.537051806683614</v>
+        <v>0.3024086144389742</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.37854247705749</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.095626326298913</v>
+        <v>0.9918794017336268</v>
       </c>
       <c r="C4">
-        <v>0.09271921255017901</v>
+        <v>0.1097473458766132</v>
       </c>
       <c r="D4">
-        <v>0.2284810194704079</v>
+        <v>0.2254918283295382</v>
       </c>
       <c r="E4">
-        <v>0.04613906073250007</v>
+        <v>0.04479465318707199</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.218898804566805</v>
+        <v>1.068076386541037</v>
       </c>
       <c r="H4">
-        <v>0.03487812031964621</v>
+        <v>0.02859119979121538</v>
       </c>
       <c r="I4">
-        <v>0.03448377269717939</v>
+        <v>0.02566530186927984</v>
       </c>
       <c r="J4">
-        <v>0.8498753095705212</v>
+        <v>0.7444416335625306</v>
       </c>
       <c r="K4">
-        <v>0.8871389958493481</v>
+        <v>0.7541390074653265</v>
       </c>
       <c r="L4">
-        <v>0.006814103803233884</v>
+        <v>0.3100630857167772</v>
       </c>
       <c r="M4">
-        <v>1.023201480514871</v>
+        <v>0.2585754298027148</v>
       </c>
       <c r="N4">
-        <v>0.2607732060159975</v>
+        <v>0.007007987434139107</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9909069038702683</v>
       </c>
       <c r="P4">
-        <v>1.551725825298433</v>
+        <v>0.2811307123586886</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.397594928338982</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.052996566265108</v>
+        <v>0.9535560685846178</v>
       </c>
       <c r="C5">
-        <v>0.08899077890818319</v>
+        <v>0.1050237698960501</v>
       </c>
       <c r="D5">
-        <v>0.2228789958156199</v>
+        <v>0.2201357719184927</v>
       </c>
       <c r="E5">
-        <v>0.04493616607666517</v>
+        <v>0.04372263494519046</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.201934822580171</v>
+        <v>1.056754201011671</v>
       </c>
       <c r="H5">
-        <v>0.03651017310600846</v>
+        <v>0.02994099494763036</v>
       </c>
       <c r="I5">
-        <v>0.03615911383174009</v>
+        <v>0.02696471049543891</v>
       </c>
       <c r="J5">
-        <v>0.8430153567243366</v>
+        <v>0.7379035922720476</v>
       </c>
       <c r="K5">
-        <v>0.8787153095568172</v>
+        <v>0.7487405043183983</v>
       </c>
       <c r="L5">
-        <v>0.006455165885964842</v>
+        <v>0.3092800380474614</v>
       </c>
       <c r="M5">
-        <v>0.9828300361704692</v>
+        <v>0.2561130448825644</v>
       </c>
       <c r="N5">
-        <v>0.2525994016615698</v>
+        <v>0.006671321373337147</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9518675346982093</v>
       </c>
       <c r="P5">
-        <v>1.556971400873692</v>
+        <v>0.2725735139336933</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.404804062968648</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.044737426258735</v>
+        <v>0.9460985216403799</v>
       </c>
       <c r="C6">
-        <v>0.08863209321393128</v>
+        <v>0.1045234530778316</v>
       </c>
       <c r="D6">
-        <v>0.2218914249770876</v>
+        <v>0.2191920988525169</v>
       </c>
       <c r="E6">
-        <v>0.04470742051712584</v>
+        <v>0.04351767996532097</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.197700327016435</v>
+        <v>1.053630019822094</v>
       </c>
       <c r="H6">
-        <v>0.03680068285780558</v>
+        <v>0.03018145738648426</v>
       </c>
       <c r="I6">
-        <v>0.03657872414356778</v>
+        <v>0.02733332639062613</v>
       </c>
       <c r="J6">
-        <v>0.8411570013413012</v>
+        <v>0.7361508913320876</v>
       </c>
       <c r="K6">
-        <v>0.8762802470666742</v>
+        <v>0.7469466836601342</v>
       </c>
       <c r="L6">
-        <v>0.006391269534331556</v>
+        <v>0.308751377632948</v>
       </c>
       <c r="M6">
-        <v>0.9757142741984239</v>
+        <v>0.255440034683037</v>
       </c>
       <c r="N6">
-        <v>0.251354301561264</v>
+        <v>0.006612505376719202</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9449904869313457</v>
       </c>
       <c r="P6">
-        <v>1.556858493339249</v>
+        <v>0.2712631125916971</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.405233663226529</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.091823575610022</v>
+        <v>0.987527874256898</v>
       </c>
       <c r="C7">
-        <v>0.09337378999752843</v>
+        <v>0.1100083180582345</v>
       </c>
       <c r="D7">
-        <v>0.2282456542458249</v>
+        <v>0.2253332099316907</v>
       </c>
       <c r="E7">
-        <v>0.04604421053524099</v>
+        <v>0.04473551274539744</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.214780628189686</v>
+        <v>1.067987080638687</v>
       </c>
       <c r="H7">
-        <v>0.03493587655496544</v>
+        <v>0.02865643813505425</v>
       </c>
       <c r="I7">
-        <v>0.03485721544514409</v>
+        <v>0.02608468748558845</v>
       </c>
       <c r="J7">
-        <v>0.8478078824379764</v>
+        <v>0.7354405989475481</v>
       </c>
       <c r="K7">
-        <v>0.8841898580908705</v>
+        <v>0.7504677490398919</v>
       </c>
       <c r="L7">
-        <v>0.006795940893426611</v>
+        <v>0.3084941760180691</v>
       </c>
       <c r="M7">
-        <v>1.02151965629119</v>
+        <v>0.2574097502368495</v>
       </c>
       <c r="N7">
-        <v>0.2609672362904973</v>
+        <v>0.006990557172202649</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9878188215042201</v>
       </c>
       <c r="P7">
-        <v>1.549112978604612</v>
+        <v>0.2811094092204911</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.394506775531823</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.302330639506778</v>
+        <v>1.173968589932485</v>
       </c>
       <c r="C8">
-        <v>0.1140349607025257</v>
+        <v>0.1349570996480907</v>
       </c>
       <c r="D8">
-        <v>0.2566107232505601</v>
+        <v>0.2526013367827176</v>
       </c>
       <c r="E8">
-        <v>0.05198632168009532</v>
+        <v>0.05008166508968159</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.294814073101648</v>
+        <v>1.12835463143638</v>
       </c>
       <c r="H8">
-        <v>0.02751792409496856</v>
+        <v>0.02256040867635234</v>
       </c>
       <c r="I8">
-        <v>0.02777606209155437</v>
+        <v>0.02083309898047414</v>
       </c>
       <c r="J8">
-        <v>0.8796954154410344</v>
+        <v>0.7490217346285988</v>
       </c>
       <c r="K8">
-        <v>0.9221181439169186</v>
+        <v>0.7707998910200899</v>
       </c>
       <c r="L8">
-        <v>0.008671622662715706</v>
+        <v>0.3090735134349103</v>
       </c>
       <c r="M8">
-        <v>1.225166542161304</v>
+        <v>0.2691381181371497</v>
       </c>
       <c r="N8">
-        <v>0.3032712663722066</v>
+        <v>0.008736477611355209</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.180910336170996</v>
       </c>
       <c r="P8">
-        <v>1.518188755755787</v>
+        <v>0.3249225603787806</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.352364909927136</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.720334330311005</v>
+        <v>1.544873794867641</v>
       </c>
       <c r="C9">
-        <v>0.1550730210809519</v>
+        <v>0.1864872536069555</v>
       </c>
       <c r="D9">
-        <v>0.313282649748416</v>
+        <v>0.306788651819673</v>
       </c>
       <c r="E9">
-        <v>0.0637006962402431</v>
+        <v>0.06047324522629438</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.462791313400572</v>
+        <v>1.244023569737763</v>
       </c>
       <c r="H9">
-        <v>0.01619135149014839</v>
+        <v>0.01323297521218833</v>
       </c>
       <c r="I9">
-        <v>0.01670246312208779</v>
+        <v>0.01253510694341209</v>
       </c>
       <c r="J9">
-        <v>0.9483804903410373</v>
+        <v>0.8037661222088985</v>
       </c>
       <c r="K9">
-        <v>1.002954004846842</v>
+        <v>0.8193106611860301</v>
       </c>
       <c r="L9">
-        <v>0.01273734435731866</v>
+        <v>0.3121052567617966</v>
       </c>
       <c r="M9">
-        <v>1.62905160696701</v>
+        <v>0.3009144015085496</v>
       </c>
       <c r="N9">
-        <v>0.3865324941046708</v>
+        <v>0.01248323369590842</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.5676479176839</v>
       </c>
       <c r="P9">
-        <v>1.464839943324222</v>
+        <v>0.4120573044001361</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.279931570954986</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.013140723029267</v>
+        <v>1.798750037523405</v>
       </c>
       <c r="C10">
-        <v>0.1873609815738462</v>
+        <v>0.2237835693034498</v>
       </c>
       <c r="D10">
-        <v>0.3503519135994253</v>
+        <v>0.3425206339818914</v>
       </c>
       <c r="E10">
-        <v>0.06986222373817697</v>
+        <v>0.06594623199941196</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.56770366361053</v>
+        <v>1.335480507641847</v>
       </c>
       <c r="H10">
-        <v>0.0105460744564172</v>
+        <v>0.008685876476626664</v>
       </c>
       <c r="I10">
-        <v>0.01111952343947564</v>
+        <v>0.008545286885549785</v>
       </c>
       <c r="J10">
-        <v>0.9899089783629904</v>
+        <v>0.7957300964164489</v>
       </c>
       <c r="K10">
-        <v>1.049562957586183</v>
+        <v>0.8381524814179855</v>
       </c>
       <c r="L10">
-        <v>0.01585291566299496</v>
+        <v>0.3072328853881174</v>
       </c>
       <c r="M10">
-        <v>1.918206840274024</v>
+        <v>0.3213471225491062</v>
       </c>
       <c r="N10">
-        <v>0.4361015312834553</v>
+        <v>0.01543718655460546</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.834876624593107</v>
       </c>
       <c r="P10">
-        <v>1.414880816120096</v>
+        <v>0.4627986229164662</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1.215162759300298</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.028341849894787</v>
+        <v>1.809426669184404</v>
       </c>
       <c r="C11">
-        <v>0.2068971768855477</v>
+        <v>0.237400095636346</v>
       </c>
       <c r="D11">
-        <v>0.3235991557759661</v>
+        <v>0.3171295740715152</v>
       </c>
       <c r="E11">
-        <v>0.05387435510760419</v>
+        <v>0.05101903943257291</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.441996615680637</v>
+        <v>1.271461177088767</v>
       </c>
       <c r="H11">
-        <v>0.02879701798327972</v>
+        <v>0.02713204219707777</v>
       </c>
       <c r="I11">
-        <v>0.01056342040557467</v>
+        <v>0.008463839119134065</v>
       </c>
       <c r="J11">
-        <v>0.9220122650206406</v>
+        <v>0.6675713104428667</v>
       </c>
       <c r="K11">
-        <v>0.9608913841233218</v>
+        <v>0.7541793370403198</v>
       </c>
       <c r="L11">
-        <v>0.01974828093228886</v>
+        <v>0.2724804186198604</v>
       </c>
       <c r="M11">
-        <v>1.965689644497388</v>
+        <v>0.2943072722493696</v>
       </c>
       <c r="N11">
-        <v>0.3563092932485006</v>
+        <v>0.02029113319324161</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.864485202695448</v>
       </c>
       <c r="P11">
-        <v>1.299340262631937</v>
+        <v>0.3773544496409187</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>1.123697651790206</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.983253862009292</v>
+        <v>1.771855249756072</v>
       </c>
       <c r="C12">
-        <v>0.2154373884058742</v>
+        <v>0.2412194287789049</v>
       </c>
       <c r="D12">
-        <v>0.2943209745698141</v>
+        <v>0.2889462396210547</v>
       </c>
       <c r="E12">
-        <v>0.04201276020010702</v>
+        <v>0.03994144637261066</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.323318765765308</v>
+        <v>1.190982277953609</v>
       </c>
       <c r="H12">
-        <v>0.06782808417616337</v>
+        <v>0.06615338853428199</v>
       </c>
       <c r="I12">
-        <v>0.01053024639919631</v>
+        <v>0.008457670954874708</v>
       </c>
       <c r="J12">
-        <v>0.860513765272259</v>
+        <v>0.5944374085746205</v>
       </c>
       <c r="K12">
-        <v>0.8836987955399209</v>
+        <v>0.6902695448796834</v>
       </c>
       <c r="L12">
-        <v>0.02759130035682489</v>
+        <v>0.2486519994689651</v>
       </c>
       <c r="M12">
-        <v>1.944990243095532</v>
+        <v>0.2707242481930194</v>
       </c>
       <c r="N12">
-        <v>0.2856024344007153</v>
+        <v>0.02876310499261336</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.839078790420615</v>
       </c>
       <c r="P12">
-        <v>1.226341611080279</v>
+        <v>0.3028171474147427</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>1.07641069905085</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.88432727570526</v>
+        <v>1.692634773712371</v>
       </c>
       <c r="C13">
-        <v>0.2169951769396903</v>
+        <v>0.2401224191948188</v>
       </c>
       <c r="D13">
-        <v>0.2613196683045373</v>
+        <v>0.2567687124568891</v>
       </c>
       <c r="E13">
-        <v>0.03255714900572126</v>
+        <v>0.03113165098509185</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.197244508317766</v>
+        <v>1.080878102589139</v>
       </c>
       <c r="H13">
-        <v>0.1245713778966433</v>
+        <v>0.122701072394733</v>
       </c>
       <c r="I13">
-        <v>0.01134378991640972</v>
+        <v>0.009012796067436213</v>
       </c>
       <c r="J13">
-        <v>0.7973135735799417</v>
+        <v>0.5605890982775605</v>
       </c>
       <c r="K13">
-        <v>0.8065253902005765</v>
+        <v>0.6355901335790719</v>
       </c>
       <c r="L13">
-        <v>0.03872369653981167</v>
+        <v>0.2301651715327253</v>
       </c>
       <c r="M13">
-        <v>1.86883932439676</v>
+        <v>0.2480939762696721</v>
       </c>
       <c r="N13">
-        <v>0.2187222990344253</v>
+        <v>0.04050844448105195</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.771992555830593</v>
       </c>
       <c r="P13">
-        <v>1.177048728806838</v>
+        <v>0.2333988643449345</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>1.054897629998203</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.790337559087163</v>
+        <v>1.617601424762825</v>
       </c>
       <c r="C14">
-        <v>0.2151686177027727</v>
+        <v>0.2373443770547112</v>
       </c>
       <c r="D14">
-        <v>0.2368521590135231</v>
+        <v>0.2327765254903511</v>
       </c>
       <c r="E14">
-        <v>0.02744402330828866</v>
+        <v>0.02644097563004344</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.105928834292669</v>
+        <v>0.992546908298209</v>
       </c>
       <c r="H14">
-        <v>0.174910756911288</v>
+        <v>0.1728109628057837</v>
       </c>
       <c r="I14">
-        <v>0.01243529640011865</v>
+        <v>0.00979510461940869</v>
       </c>
       <c r="J14">
-        <v>0.7523809189466135</v>
+        <v>0.5508795365717702</v>
       </c>
       <c r="K14">
-        <v>0.7526735819017532</v>
+        <v>0.6007440134772182</v>
       </c>
       <c r="L14">
-        <v>0.04860456675552527</v>
+        <v>0.2191189621859593</v>
       </c>
       <c r="M14">
-        <v>1.790483500000136</v>
+        <v>0.2326614197732937</v>
       </c>
       <c r="N14">
-        <v>0.175183521041788</v>
+        <v>0.05085992191823863</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.705790164979305</v>
       </c>
       <c r="P14">
-        <v>1.154068138365016</v>
+        <v>0.1885119913121542</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>1.050598830290585</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.755098587401477</v>
+        <v>1.589345336808464</v>
       </c>
       <c r="C15">
-        <v>0.2135349464726204</v>
+        <v>0.2358711596367442</v>
       </c>
       <c r="D15">
-        <v>0.2299938149487275</v>
+        <v>0.2260094693574644</v>
       </c>
       <c r="E15">
-        <v>0.0263474652234903</v>
+        <v>0.02545408959504991</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.080630960026625</v>
+        <v>0.9650349375235692</v>
       </c>
       <c r="H15">
-        <v>0.1878843301617934</v>
+        <v>0.1856763373533852</v>
       </c>
       <c r="I15">
-        <v>0.0130550999810195</v>
+        <v>0.01028930661830163</v>
       </c>
       <c r="J15">
-        <v>0.7403454973586321</v>
+        <v>0.5538647834690522</v>
       </c>
       <c r="K15">
-        <v>0.738428309428258</v>
+        <v>0.592771912712287</v>
       </c>
       <c r="L15">
-        <v>0.05102645812699791</v>
+        <v>0.2168986630835334</v>
       </c>
       <c r="M15">
-        <v>1.759466773738808</v>
+        <v>0.2286989941442066</v>
       </c>
       <c r="N15">
-        <v>0.1645878160807968</v>
+        <v>0.05343786823961949</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.680242470869899</v>
       </c>
       <c r="P15">
-        <v>1.151723851278103</v>
+        <v>0.1777214315220306</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>1.052891406314375</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.649745583667993</v>
+        <v>1.50394402782581</v>
       </c>
       <c r="C16">
-        <v>0.1994580460875568</v>
+        <v>0.2246567631436562</v>
       </c>
       <c r="D16">
-        <v>0.2214723787668049</v>
+        <v>0.2173430419663447</v>
       </c>
       <c r="E16">
-        <v>0.02588281117145375</v>
+        <v>0.02506206335157435</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.060634528608418</v>
+        <v>0.9211056573011831</v>
       </c>
       <c r="H16">
-        <v>0.1775063701206676</v>
+        <v>0.1747811334126936</v>
       </c>
       <c r="I16">
-        <v>0.01540524181659109</v>
+        <v>0.01198009242147613</v>
       </c>
       <c r="J16">
-        <v>0.7348165639519522</v>
+        <v>0.6046728436260906</v>
       </c>
       <c r="K16">
-        <v>0.7334843399191726</v>
+        <v>0.6016105289642368</v>
       </c>
       <c r="L16">
-        <v>0.04707099406983417</v>
+        <v>0.2229446625732798</v>
       </c>
       <c r="M16">
-        <v>1.65126568247527</v>
+        <v>0.2282417311220222</v>
       </c>
       <c r="N16">
-        <v>0.1590199638223098</v>
+        <v>0.04980006576528595</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.592929583699004</v>
       </c>
       <c r="P16">
-        <v>1.1802426081475</v>
+        <v>0.1732674506230651</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>1.08237970274589</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.618481018074704</v>
+        <v>1.476770112623512</v>
       </c>
       <c r="C17">
-        <v>0.1897292628101752</v>
+        <v>0.2168326139412073</v>
       </c>
       <c r="D17">
-        <v>0.2277066765417999</v>
+        <v>0.2232897574421031</v>
       </c>
       <c r="E17">
-        <v>0.02793234416128243</v>
+        <v>0.02691769497798724</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.093076101347876</v>
+        <v>0.937046238623978</v>
       </c>
       <c r="H17">
-        <v>0.1410435548618665</v>
+        <v>0.1380474456144896</v>
       </c>
       <c r="I17">
-        <v>0.01667639497467377</v>
+        <v>0.01291806540464879</v>
       </c>
       <c r="J17">
-        <v>0.7541540802270248</v>
+        <v>0.6450349635393735</v>
       </c>
       <c r="K17">
-        <v>0.757757396848163</v>
+        <v>0.6259641947262722</v>
       </c>
       <c r="L17">
-        <v>0.0383961781093447</v>
+        <v>0.2335389776552077</v>
       </c>
       <c r="M17">
-        <v>1.609831818645688</v>
+        <v>0.2353957467369625</v>
       </c>
       <c r="N17">
-        <v>0.1768559843972071</v>
+        <v>0.04098318406332524</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.55882093019261</v>
       </c>
       <c r="P17">
-        <v>1.213741715541012</v>
+        <v>0.1926359785259635</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>1.1083315007555</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.64969555148474</v>
+        <v>1.500784758404734</v>
       </c>
       <c r="C18">
-        <v>0.1819271060141006</v>
+        <v>0.2113128599056324</v>
       </c>
       <c r="D18">
-        <v>0.2480417464450113</v>
+        <v>0.2430162991710603</v>
       </c>
       <c r="E18">
-        <v>0.03382449764402296</v>
+        <v>0.03229952023312421</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.179259125889885</v>
+        <v>1.002663941505887</v>
       </c>
       <c r="H18">
-        <v>0.08842916545046364</v>
+        <v>0.08539139432207321</v>
       </c>
       <c r="I18">
-        <v>0.01665151573069945</v>
+        <v>0.01279050156293948</v>
       </c>
       <c r="J18">
-        <v>0.7994634346438829</v>
+        <v>0.6930714652765175</v>
       </c>
       <c r="K18">
-        <v>0.8136823757613598</v>
+        <v>0.6715210708513482</v>
       </c>
       <c r="L18">
-        <v>0.02706128138020958</v>
+        <v>0.251281763025581</v>
       </c>
       <c r="M18">
-        <v>1.6214470224416</v>
+        <v>0.2515454561893193</v>
       </c>
       <c r="N18">
-        <v>0.2207277390731122</v>
+        <v>0.02912639929161287</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.570485081638026</v>
       </c>
       <c r="P18">
-        <v>1.261640752077806</v>
+        <v>0.2390062345188966</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>1.139768361874449</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.723253673888138</v>
+        <v>1.559682847060657</v>
       </c>
       <c r="C19">
-        <v>0.1777099278078111</v>
+        <v>0.2099995808625437</v>
       </c>
       <c r="D19">
-        <v>0.2790943283000331</v>
+        <v>0.27316483633183</v>
       </c>
       <c r="E19">
-        <v>0.04445684670721661</v>
+        <v>0.04214767384534923</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.300461375785133</v>
+        <v>1.098662614424299</v>
       </c>
       <c r="H19">
-        <v>0.04217026646162481</v>
+        <v>0.03930700889262795</v>
       </c>
       <c r="I19">
-        <v>0.01616306862968564</v>
+        <v>0.01250528537172801</v>
       </c>
       <c r="J19">
-        <v>0.8611722944587541</v>
+        <v>0.7468325553574147</v>
       </c>
       <c r="K19">
-        <v>0.8898791097108898</v>
+        <v>0.7303031947967611</v>
       </c>
       <c r="L19">
-        <v>0.01806398141725829</v>
+        <v>0.2732967791800078</v>
       </c>
       <c r="M19">
-        <v>1.672600542160893</v>
+        <v>0.2735039050239827</v>
       </c>
       <c r="N19">
-        <v>0.2892021992906848</v>
+        <v>0.01930041193481458</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.617316398935287</v>
       </c>
       <c r="P19">
-        <v>1.322461423332754</v>
+        <v>0.3108432850920906</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>1.177554621291367</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.925313003643765</v>
+        <v>1.725495083080716</v>
       </c>
       <c r="C20">
-        <v>0.1810496834573172</v>
+        <v>0.2180237820528248</v>
       </c>
       <c r="D20">
-        <v>0.3398651982559215</v>
+        <v>0.3321807957236018</v>
       </c>
       <c r="E20">
-        <v>0.06789969278563035</v>
+        <v>0.06408739174831624</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.527054416001533</v>
+        <v>1.287230941678828</v>
       </c>
       <c r="H20">
-        <v>0.01193208165771331</v>
+        <v>0.00977052651345689</v>
       </c>
       <c r="I20">
-        <v>0.01340032932054847</v>
+        <v>0.01055100070313131</v>
       </c>
       <c r="J20">
-        <v>0.9723854452016951</v>
+        <v>0.8164268985359513</v>
       </c>
       <c r="K20">
-        <v>1.027986978673809</v>
+        <v>0.8294831788361137</v>
       </c>
       <c r="L20">
-        <v>0.01495397630981588</v>
+        <v>0.3071737549418074</v>
       </c>
       <c r="M20">
-        <v>1.83799502788392</v>
+        <v>0.3143580100914676</v>
       </c>
       <c r="N20">
-        <v>0.4234889754926741</v>
+        <v>0.01462753122148364</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.766288132799389</v>
       </c>
       <c r="P20">
-        <v>1.419689090979823</v>
+        <v>0.4505860736694274</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>1.229572268248099</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.172302079677706</v>
+        <v>1.920930451945367</v>
       </c>
       <c r="C21">
-        <v>0.2053243546468764</v>
+        <v>0.2379235906877568</v>
       </c>
       <c r="D21">
-        <v>0.3765233095574416</v>
+        <v>0.3688733736014882</v>
       </c>
       <c r="E21">
-        <v>0.07638308873909594</v>
+        <v>0.07240181218310582</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.641908107670844</v>
+        <v>1.455864097703142</v>
       </c>
       <c r="H21">
-        <v>0.007661239954344368</v>
+        <v>0.006384562849597042</v>
       </c>
       <c r="I21">
-        <v>0.00945790554627024</v>
+        <v>0.007817421925209622</v>
       </c>
       <c r="J21">
-        <v>1.021542305917109</v>
+        <v>0.7039563350295168</v>
       </c>
       <c r="K21">
-        <v>1.085415834388627</v>
+        <v>0.8393106761198794</v>
       </c>
       <c r="L21">
-        <v>0.01773238684985312</v>
+        <v>0.3018672200733121</v>
       </c>
       <c r="M21">
-        <v>2.076216414937477</v>
+        <v>0.3289570680886627</v>
       </c>
       <c r="N21">
-        <v>0.4809689121472616</v>
+        <v>0.01694699549649181</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.956481706143819</v>
       </c>
       <c r="P21">
-        <v>1.401290352638405</v>
+        <v>0.5057681596003079</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>1.176065125552995</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.331820395136333</v>
+        <v>2.045430541066878</v>
       </c>
       <c r="C22">
-        <v>0.2208021124933737</v>
+        <v>0.2495579985444891</v>
       </c>
       <c r="D22">
-        <v>0.3982622307457149</v>
+        <v>0.3908429472330823</v>
       </c>
       <c r="E22">
-        <v>0.08082575322177732</v>
+        <v>0.0768683326416344</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.712784521848931</v>
+        <v>1.573009246431752</v>
       </c>
       <c r="H22">
-        <v>0.005553427403917177</v>
+        <v>0.004718429430810578</v>
       </c>
       <c r="I22">
-        <v>0.007069026884794383</v>
+        <v>0.005992133823488288</v>
       </c>
       <c r="J22">
-        <v>1.051629432636133</v>
+        <v>0.6292342231800916</v>
       </c>
       <c r="K22">
-        <v>1.120543084994289</v>
+        <v>0.8422483648675936</v>
       </c>
       <c r="L22">
-        <v>0.01956878246060079</v>
+        <v>0.2972164325934301</v>
       </c>
       <c r="M22">
-        <v>2.229456802129931</v>
+        <v>0.3375371702267884</v>
       </c>
       <c r="N22">
-        <v>0.5119720780290891</v>
+        <v>0.01854810104570559</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.075415413040218</v>
       </c>
       <c r="P22">
-        <v>1.387070778882915</v>
+        <v>0.5346081316799882</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>1.139272158387143</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.250620644907144</v>
+        <v>1.984997621778689</v>
       </c>
       <c r="C23">
-        <v>0.2116488428625303</v>
+        <v>0.2436196686284688</v>
       </c>
       <c r="D23">
-        <v>0.3868356042948591</v>
+        <v>0.3790875892225642</v>
       </c>
       <c r="E23">
-        <v>0.07854807146557974</v>
+        <v>0.07448214985075552</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.679448846269253</v>
+        <v>1.503871175852225</v>
       </c>
       <c r="H23">
-        <v>0.006617109434412349</v>
+        <v>0.005547479109652032</v>
       </c>
       <c r="I23">
-        <v>0.007941373295944132</v>
+        <v>0.006505406927196589</v>
       </c>
       <c r="J23">
-        <v>1.037826321430686</v>
+        <v>0.6847670909003654</v>
       </c>
       <c r="K23">
-        <v>1.105079198929324</v>
+        <v>0.8462646212113256</v>
       </c>
       <c r="L23">
-        <v>0.01860046448141883</v>
+        <v>0.3016154071608952</v>
       </c>
       <c r="M23">
-        <v>2.149017571892784</v>
+        <v>0.3351846868492174</v>
       </c>
       <c r="N23">
-        <v>0.4950315461653361</v>
+        <v>0.01770744381036726</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.01738090784545</v>
       </c>
       <c r="P23">
-        <v>1.397507218701136</v>
+        <v>0.5194019454438745</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>1.162948486424831</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.937491084475994</v>
+        <v>1.735830531986323</v>
       </c>
       <c r="C24">
-        <v>0.179048613123058</v>
+        <v>0.2161870528653225</v>
       </c>
       <c r="D24">
-        <v>0.3435871445032319</v>
+        <v>0.3357754007836036</v>
       </c>
       <c r="E24">
-        <v>0.06979591283180042</v>
+        <v>0.06586907627354321</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.547804847112815</v>
+        <v>1.303771998687253</v>
       </c>
       <c r="H24">
-        <v>0.01163084268935502</v>
+        <v>0.009493597071833421</v>
       </c>
       <c r="I24">
-        <v>0.01276649268337415</v>
+        <v>0.009839130316719569</v>
       </c>
       <c r="J24">
-        <v>0.982927289918166</v>
+        <v>0.8264645812404439</v>
       </c>
       <c r="K24">
-        <v>1.042013775238495</v>
+        <v>0.8408097219701389</v>
       </c>
       <c r="L24">
-        <v>0.01507001763424398</v>
+        <v>0.3114452357535029</v>
       </c>
       <c r="M24">
-        <v>1.843707232002004</v>
+        <v>0.3185556867459738</v>
       </c>
       <c r="N24">
-        <v>0.4318848738188166</v>
+        <v>0.01461778532373348</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.771684868968578</v>
       </c>
       <c r="P24">
-        <v>1.433422422735454</v>
+        <v>0.4594116611333163</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>1.239127664653829</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.60128370815147</v>
+        <v>1.440626064557364</v>
       </c>
       <c r="C25">
-        <v>0.1450442623535508</v>
+        <v>0.1743366584159531</v>
       </c>
       <c r="D25">
-        <v>0.2975645373739013</v>
+        <v>0.2916748981970017</v>
       </c>
       <c r="E25">
-        <v>0.06039306134287514</v>
+        <v>0.05749880387969775</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.409824156097827</v>
+        <v>1.201102398164934</v>
       </c>
       <c r="H25">
-        <v>0.01892572403714743</v>
+        <v>0.01546553658266359</v>
       </c>
       <c r="I25">
-        <v>0.01987682298590432</v>
+        <v>0.01509090240754318</v>
       </c>
       <c r="J25">
-        <v>0.925943708511582</v>
+        <v>0.7957657141107575</v>
       </c>
       <c r="K25">
-        <v>0.9758088089799983</v>
+        <v>0.8034700184183947</v>
       </c>
       <c r="L25">
-        <v>0.01156309956732304</v>
+        <v>0.310431322901465</v>
       </c>
       <c r="M25">
-        <v>1.517308033698129</v>
+        <v>0.2906846675972616</v>
       </c>
       <c r="N25">
-        <v>0.3644561077627344</v>
+        <v>0.01141925706041036</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.463025903394396</v>
       </c>
       <c r="P25">
-        <v>1.474368211300586</v>
+        <v>0.3892059311018556</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.297286986545913</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
